--- a/tests/test1/d40/ЛМ, 1.0.xlsx
+++ b/tests/test1/d40/ЛМ, 1.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.0133240999999984</v>
+        <v>0.004414700000001659</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002596900000000346</v>
+        <v>0.00800999999999874</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002101500000001977</v>
+        <v>0.005388100000001117</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00255660000000546</v>
+        <v>0.00721290000000252</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002096999999999127</v>
+        <v>0.003879099999998914</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002414899999997999</v>
+        <v>0.004016499999998757</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002348900000001208</v>
+        <v>0.002495999999997167</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002057900000004054</v>
+        <v>0.002040300000000883</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004095299999995916</v>
+        <v>0.002674999999999983</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001816800000000285</v>
+        <v>0.004325999999998942</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002046700000001067</v>
+        <v>0.004226499999997912</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002116900000004307</v>
+        <v>0.003752099999999814</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002324000000001547</v>
+        <v>0.002196400000002541</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002106000000004826</v>
+        <v>0.005656500000000619</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002567800000001341</v>
+        <v>0.002507999999998844</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003324700000000291</v>
+        <v>0.005953099999999267</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001834299999998734</v>
+        <v>0.001759400000000966</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002299000000000717</v>
+        <v>0.004469300000000231</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.00259389999999371</v>
+        <v>0.004009700000001004</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001865299999998626</v>
+        <v>0.001856100000001248</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002828100000002109</v>
+        <v>0.005090800000001394</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001850399999995034</v>
+        <v>0.00184420000000074</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.003475700000002746</v>
+        <v>0.001997600000002819</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003163199999995925</v>
+        <v>0.002775599999999656</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.005253199999998515</v>
+        <v>0.002087700000000581</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005210299999994561</v>
+        <v>0.002117699999999445</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004240700000003983</v>
+        <v>0.004480299999997328</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004662199999998506</v>
+        <v>0.004533900000001978</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004533699999996088</v>
+        <v>0.004464000000002244</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00409129999999891</v>
+        <v>0.002009499999999775</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002470000000002415</v>
+        <v>0.001998700000001463</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.005157900000000382</v>
+        <v>0.002487399999999695</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.004121899999994127</v>
+        <v>0.002102499999999452</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003300400000000536</v>
+        <v>0.001751200000001063</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.006161999999996226</v>
+        <v>0.001876800000001566</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002433799999998598</v>
+        <v>0.002328699999999628</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.004052100000002667</v>
+        <v>0.003666600000002518</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002182200000000023</v>
+        <v>0.002024200000001031</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003585200000003397</v>
+        <v>0.004738499999998425</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002862499999999102</v>
+        <v>0.002477199999997737</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001942900000003078</v>
+        <v>0.001778800000000302</v>
       </c>
       <c r="Y42" t="n">
         <v>7</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00217930000000166</v>
+        <v>0.002181800000002454</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002763300000005131</v>
+        <v>0.002443800000001772</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002464699999997322</v>
+        <v>0.001781599999997496</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002227899999994065</v>
+        <v>0.001979999999999649</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001984700000001283</v>
+        <v>0.003029699999999025</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002430699999997898</v>
+        <v>0.002275099999998531</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002103300000001695</v>
+        <v>0.001982399999999274</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003766099999999994</v>
+        <v>0.00178550000000044</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.003063399999994942</v>
+        <v>0.001732199999999295</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002182200000000023</v>
+        <v>0.003091299999997688</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003766099999999994</v>
+        <v>0.002035700000000418</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002157800000006205</v>
+        <v>0.001991600000000204</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.004898900000000594</v>
+        <v>0.00207149999999956</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003085399999996241</v>
+        <v>0.001962699999999984</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00474140000000034</v>
+        <v>0.003790200000000965</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001914900000002717</v>
+        <v>0.001730399999999577</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003554999999998643</v>
+        <v>0.001731899999999342</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002290499999993756</v>
+        <v>0.002280400000000071</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.003536099999998044</v>
+        <v>0.001964899999997272</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002101899999999546</v>
+        <v>0.002587099999999509</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002171400000001711</v>
+        <v>0.001962299999998862</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001852499999998258</v>
+        <v>0.001761699999999422</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003051300000002755</v>
+        <v>0.002231800000000561</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002368799999999283</v>
+        <v>0.002206300000000994</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.00257949999999596</v>
+        <v>0.001856800000002323</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002100800000000902</v>
+        <v>0.001963199999998722</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003959800000004066</v>
+        <v>0.003893999999998954</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002134300000001588</v>
+        <v>0.002000500000001182</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003130800000000988</v>
+        <v>0.002270599999999234</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002109900000000664</v>
+        <v>0.002067000000000263</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002847299999999109</v>
+        <v>0.001996699999999407</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001892300000001512</v>
+        <v>0.003410399999999925</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002642000000001588</v>
+        <v>0.002450400000000741</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002369799999996758</v>
+        <v>0.002222800000001968</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001872400000003438</v>
+        <v>0.001834800000001025</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00269320000000306</v>
+        <v>0.002558600000000411</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002048700000003123</v>
+        <v>0.002086899999998337</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002098100000004877</v>
+        <v>0.00200010000000006</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002563099999996155</v>
+        <v>0.004084699999999941</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003721800000000997</v>
+        <v>0.00244960000000205</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002320099999998604</v>
+        <v>0.002202000000000481</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004266999999998689</v>
+        <v>0.002205800000002256</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002333299999996541</v>
+        <v>0.002198200000002259</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001934200000000885</v>
+        <v>0.001926600000000889</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002583299999997735</v>
+        <v>0.002422599999999164</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002116600000000801</v>
+        <v>0.003649199999998132</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002827599999996266</v>
+        <v>0.002673200000000264</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00258429999999521</v>
+        <v>0.002429599999999255</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002154199999999662</v>
+        <v>0.00206449999999947</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002087799999998197</v>
+        <v>0.001992299999997726</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003334800000004634</v>
+        <v>0.002615400000003376</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002327100000002247</v>
+        <v>0.002244799999999714</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002603000000000577</v>
+        <v>0.003980999999999568</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002354900000000271</v>
+        <v>0.002235100000000045</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001876899999999182</v>
+        <v>0.001739599999996955</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002415599999999074</v>
+        <v>0.002441499999999763</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002571699999997179</v>
+        <v>0.00244119999999981</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002724699999994584</v>
+        <v>0.00318629999999942</v>
       </c>
       <c r="Y100" t="n">
         <v>8</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002552099999995505</v>
+        <v>0.002484400000000164</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d40/ЛМ, 1.0.xlsx
+++ b/tests/test1/d40/ЛМ, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004414700000001659</v>
+        <v>0.003625600000006557</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00800999999999874</v>
+        <v>0.007597599999996874</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.005388100000001117</v>
+        <v>0.003909800000002406</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00721290000000252</v>
+        <v>0.00284449999999481</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003879099999998914</v>
+        <v>0.006039199999989364</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004016499999998757</v>
+        <v>0.004413799999994694</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002495999999997167</v>
+        <v>0.002558200000009947</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002040300000000883</v>
+        <v>0.004459099999991167</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002674999999999983</v>
+        <v>0.005050999999994588</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004325999999998942</v>
+        <v>0.002192100000002029</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.004226499999997912</v>
+        <v>0.00232239999999706</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003752099999999814</v>
+        <v>0.002413400000008892</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002196400000002541</v>
+        <v>0.004919399999991469</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.005656500000000619</v>
+        <v>0.002219799999991778</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002507999999998844</v>
+        <v>0.003942399999999679</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.005953099999999267</v>
+        <v>0.002365999999994983</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001759400000000966</v>
+        <v>0.001925799999995093</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004469300000000231</v>
+        <v>0.002501000000009412</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004009700000001004</v>
+        <v>0.002699599999999691</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001856100000001248</v>
+        <v>0.001945100000000366</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005090800000001394</v>
+        <v>0.002923400000000242</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.00184420000000074</v>
+        <v>0.002734300000000189</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001997600000002819</v>
+        <v>0.002260199999994938</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002775599999999656</v>
+        <v>0.003150500000003831</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002087700000000581</v>
+        <v>0.002943700000002991</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002117699999999445</v>
+        <v>0.003699400000002129</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004480299999997328</v>
+        <v>0.002494099999992727</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004533900000001978</v>
+        <v>0.005055699999999774</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004464000000002244</v>
+        <v>0.002715899999998328</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002009499999999775</v>
+        <v>0.002339399999996772</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.001998700000001463</v>
+        <v>0.002973400000001902</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002487399999999695</v>
+        <v>0.002705399999996416</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002102499999999452</v>
+        <v>0.004595599999987598</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001751200000001063</v>
+        <v>0.00192769999999598</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001876800000001566</v>
+        <v>0.001893600000002493</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002328699999999628</v>
+        <v>0.00244190000000799</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003666600000002518</v>
+        <v>0.002486300000001052</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002024200000001031</v>
+        <v>0.002191099999990342</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004738499999998425</v>
+        <v>0.002950100000006728</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002477199999997737</v>
+        <v>0.002709600000002865</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001778800000000302</v>
+        <v>0.001899899999997956</v>
       </c>
       <c r="Y42" t="n">
         <v>7</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002181800000002454</v>
+        <v>0.002205699999990429</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002443800000001772</v>
+        <v>0.002646900000002006</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001781599999997496</v>
+        <v>0.003722800000005577</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001979999999999649</v>
+        <v>0.002210300000001553</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.003029699999999025</v>
+        <v>0.001889900000008993</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002275099999998531</v>
+        <v>0.002471499999998628</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001982399999999274</v>
+        <v>0.002149799999997981</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.00178550000000044</v>
+        <v>0.00199749999998744</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001732199999999295</v>
+        <v>0.001913700000002905</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003091299999997688</v>
+        <v>0.00386670000000322</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002035700000000418</v>
+        <v>0.002165800000000218</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001991600000000204</v>
+        <v>0.002273199999990538</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00207149999999956</v>
+        <v>0.002286699999999087</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.001962699999999984</v>
+        <v>0.002986300000003439</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003790200000000965</v>
+        <v>0.003534599999994725</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001730399999999577</v>
+        <v>0.003986099999991666</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001731899999999342</v>
+        <v>0.001908000000000243</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002280400000000071</v>
+        <v>0.002423600000000192</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001964899999997272</v>
+        <v>0.002195600000007403</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002587099999999509</v>
+        <v>0.00216700000000003</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001962299999998862</v>
+        <v>0.002287599999988288</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001761699999999422</v>
+        <v>0.001911500000005617</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002231800000000561</v>
+        <v>0.00413310000000422</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002206300000000994</v>
+        <v>0.002405700000011279</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001856800000002323</v>
+        <v>0.001891699999987395</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.001963199999998722</v>
+        <v>0.00223960000001</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003893999999998954</v>
+        <v>0.002685499999998342</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002000500000001182</v>
+        <v>0.002196599999990667</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002270599999999234</v>
+        <v>0.002447700000004716</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002067000000000263</v>
+        <v>0.004251599999989253</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001996699999999407</v>
+        <v>0.002172299999998017</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003410399999999925</v>
+        <v>0.003188499999993155</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002450400000000741</v>
+        <v>0.002755000000007612</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002222800000001968</v>
+        <v>0.00241110000000333</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001834800000001025</v>
+        <v>0.001951000000005365</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002558600000000411</v>
+        <v>0.00267329999999788</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002086899999998337</v>
+        <v>0.00224100000001215</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00200010000000006</v>
+        <v>0.002168500000010454</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.004084699999999941</v>
+        <v>0.00462500000000432</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00244960000000205</v>
+        <v>0.002692199999998479</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002202000000000481</v>
+        <v>0.004348800000002484</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002205800000002256</v>
+        <v>0.002429699999993318</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002198200000002259</v>
+        <v>0.003681299999996668</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001926600000000889</v>
+        <v>0.001952500000001578</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002422599999999164</v>
+        <v>0.00274479999998789</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003649199999998132</v>
+        <v>0.002211799999997766</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002673200000000264</v>
+        <v>0.002984999999995352</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002429599999999255</v>
+        <v>0.002746700000002988</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.00206449999999947</v>
+        <v>0.002222700000004352</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001992299999997726</v>
+        <v>0.00387489999999957</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002615400000003376</v>
+        <v>0.002121399999992946</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002244799999999714</v>
+        <v>0.003250699999995277</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003980999999999568</v>
+        <v>0.002853399999992234</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002235100000000045</v>
+        <v>0.002440700000008178</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001739599999996955</v>
+        <v>0.002170200000009004</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002441499999999763</v>
+        <v>0.002436799999998129</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00244119999999981</v>
+        <v>0.002916499999997768</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00318629999999942</v>
+        <v>0.002194299999999316</v>
       </c>
       <c r="Y100" t="n">
         <v>8</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002484400000000164</v>
+        <v>0.003654699999998456</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d40/ЛМ, 1.0.xlsx
+++ b/tests/test1/d40/ЛМ, 1.0.xlsx
@@ -582,13 +582,13 @@
         <v>359.7702055476941</v>
       </c>
       <c r="F2" t="n">
-        <v>41.94066603885275</v>
+        <v>41.9406660388528</v>
       </c>
       <c r="G2" t="n">
-        <v>94.13615071144758</v>
+        <v>94.13615071144753</v>
       </c>
       <c r="H2" t="n">
-        <v>12.81506110318845</v>
+        <v>12.81506110318847</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>23.15106845447635</v>
       </c>
       <c r="P2" t="n">
-        <v>41.56169951476388</v>
+        <v>41.56169951476394</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1130586899160161</v>
+        <v>0.1130586899160148</v>
       </c>
       <c r="R2" t="n">
-        <v>2.819562512270428</v>
+        <v>2.81956251227008</v>
       </c>
       <c r="S2" t="n">
-        <v>1.323908270080879</v>
+        <v>1.323908270080751</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9002840091375075</v>
+        <v>0.9002840091375303</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9986929265842479</v>
+        <v>0.9986929265842476</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5839756544903645</v>
+        <v>0.5839756544903734</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003625600000006557</v>
+        <v>0.002129700000004675</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>0.01469748163557792</v>
       </c>
       <c r="F3" t="n">
-        <v>37.18981226738921</v>
+        <v>37.18981226738923</v>
       </c>
       <c r="G3" t="n">
-        <v>76.76503798750649</v>
+        <v>76.76503798750643</v>
       </c>
       <c r="H3" t="n">
-        <v>10.32940632093715</v>
+        <v>10.32940632093716</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -694,25 +694,25 @@
         <v>19.49731057587021</v>
       </c>
       <c r="P3" t="n">
-        <v>39.68705503524571</v>
+        <v>39.68705503524575</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09495554825683883</v>
+        <v>0.09495554825683758</v>
       </c>
       <c r="R3" t="n">
-        <v>2.151101311321076</v>
+        <v>2.151101311321127</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9830047719002792</v>
+        <v>0.9830047719002877</v>
       </c>
       <c r="T3" t="n">
-        <v>1.105326876142569</v>
+        <v>1.105326876142554</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9940466216485133</v>
+        <v>0.994046621648514</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5214783822830662</v>
+        <v>0.5214783822830611</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.007597599999996874</v>
+        <v>0.002184399999997311</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -752,7 +752,7 @@
         <v>128.4763084092627</v>
       </c>
       <c r="H4" t="n">
-        <v>3.942316657788119</v>
+        <v>3.942316657788121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>7.731368038530287</v>
       </c>
       <c r="P4" t="n">
-        <v>36.91131842103175</v>
+        <v>36.91131842103176</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0968371724515764</v>
+        <v>0.09683717245157407</v>
       </c>
       <c r="R4" t="n">
-        <v>2.077376582207082</v>
+        <v>2.077376582207072</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4877217193122092</v>
+        <v>0.4877217193121886</v>
       </c>
       <c r="T4" t="n">
-        <v>2.521134885348941</v>
+        <v>2.52113488534885</v>
       </c>
       <c r="U4" t="n">
         <v>1.054898519373528</v>
       </c>
       <c r="V4" t="n">
-        <v>1.839735725634996</v>
+        <v>1.839735725634997</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003909800000002406</v>
+        <v>0.001657799999996712</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>107.2923445572636</v>
       </c>
       <c r="H5" t="n">
-        <v>10.07901297583671</v>
+        <v>10.0790129758367</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,25 +858,25 @@
         <v>22.68481294306535</v>
       </c>
       <c r="P5" t="n">
-        <v>33.36626943381242</v>
+        <v>33.36626943381241</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08896403854991364</v>
+        <v>0.08896403854990793</v>
       </c>
       <c r="R5" t="n">
-        <v>2.02732823244534</v>
+        <v>2.027328232444972</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9229096758339699</v>
+        <v>0.9229096758337868</v>
       </c>
       <c r="T5" t="n">
-        <v>0.741916064927174</v>
+        <v>0.741916064927139</v>
       </c>
       <c r="U5" t="n">
         <v>1.044129419324391</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7507143415788845</v>
+        <v>0.7507143415788864</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00284449999999481</v>
+        <v>0.002198200000002259</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>0.008845407329210504</v>
       </c>
       <c r="F6" t="n">
-        <v>40.62827172220594</v>
+        <v>40.62827172220592</v>
       </c>
       <c r="G6" t="n">
         <v>176.1404436270386</v>
       </c>
       <c r="H6" t="n">
-        <v>11.62381440127713</v>
+        <v>11.62381440127711</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>24.18766724084059</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.07783986051875016</v>
+        <v>0.07783986051874876</v>
       </c>
       <c r="R6" t="n">
-        <v>1.715994484822013</v>
+        <v>1.715994484821996</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2517923478329875</v>
+        <v>0.2517923478329818</v>
       </c>
       <c r="T6" t="n">
-        <v>2.570195476184474</v>
+        <v>2.570195476184413</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9407889055940086</v>
+        <v>0.9407889055940082</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7523440744086289</v>
+        <v>0.7523440744086252</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.006039199999989364</v>
+        <v>0.001777699999998106</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>359.8435675180759</v>
       </c>
       <c r="F7" t="n">
-        <v>42.46362011178191</v>
+        <v>42.46362011178189</v>
       </c>
       <c r="G7" t="n">
-        <v>38.38135344437462</v>
+        <v>38.38135344437461</v>
       </c>
       <c r="H7" t="n">
-        <v>15.73807491407376</v>
+        <v>15.73807491407375</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>13.16234128547696</v>
       </c>
       <c r="P7" t="n">
-        <v>56.12600655121543</v>
+        <v>56.1260065512154</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1151142290677562</v>
+        <v>0.1151142290677575</v>
       </c>
       <c r="R7" t="n">
-        <v>3.016391043987952</v>
+        <v>3.016391043988265</v>
       </c>
       <c r="S7" t="n">
-        <v>1.14757922259255</v>
+        <v>1.147579222592663</v>
       </c>
       <c r="T7" t="n">
-        <v>2.437207361094102</v>
+        <v>2.437207361094205</v>
       </c>
       <c r="U7" t="n">
         <v>0.9591716132539294</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6571659358965392</v>
+        <v>0.6571659358965369</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004413799999994694</v>
+        <v>0.001864799999999889</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>167.8106395386324</v>
       </c>
       <c r="H8" t="n">
-        <v>8.956617621213825</v>
+        <v>8.956617621213841</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>7.557062919370423</v>
       </c>
       <c r="P8" t="n">
-        <v>26.43714884138106</v>
+        <v>26.43714884138103</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08341926020497452</v>
+        <v>0.0834192602049757</v>
       </c>
       <c r="R8" t="n">
-        <v>1.519962632261054</v>
+        <v>1.519962632261043</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3421259251942556</v>
+        <v>0.3421259251942604</v>
       </c>
       <c r="T8" t="n">
-        <v>1.990041281711768</v>
+        <v>1.990041281711802</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9286331691567253</v>
+        <v>0.9286331691567254</v>
       </c>
       <c r="V8" t="n">
-        <v>1.081945022438418</v>
+        <v>1.081945022438426</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002558200000009947</v>
+        <v>0.001879100000003575</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1159,10 +1159,10 @@
         <v>36.18577017829895</v>
       </c>
       <c r="G9" t="n">
-        <v>13.78007779335206</v>
+        <v>13.78007779335207</v>
       </c>
       <c r="H9" t="n">
-        <v>9.244131864261195</v>
+        <v>9.24413186426119</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1189,22 +1189,22 @@
         <v>44.51289900031279</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0860034525182094</v>
+        <v>0.08600345251820994</v>
       </c>
       <c r="R9" t="n">
-        <v>2.258614449546672</v>
+        <v>2.258614449546674</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3928920416490591</v>
+        <v>0.3928920416490615</v>
       </c>
       <c r="T9" t="n">
-        <v>3.568645159444491</v>
+        <v>3.568645159444555</v>
       </c>
       <c r="U9" t="n">
         <v>0.9485819682998241</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9134926692684824</v>
+        <v>0.913492669268484</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004459099999991167</v>
+        <v>0.00168120000000016</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,7 +1238,7 @@
         <v>359.9127759279031</v>
       </c>
       <c r="F10" t="n">
-        <v>42.07810821800871</v>
+        <v>42.07810821800869</v>
       </c>
       <c r="G10" t="n">
         <v>154.6544953160416</v>
@@ -1268,25 +1268,25 @@
         <v>20.60065223530482</v>
       </c>
       <c r="P10" t="n">
-        <v>24.89609766403739</v>
+        <v>24.89609766403738</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1006898082058292</v>
+        <v>0.1006898082058331</v>
       </c>
       <c r="R10" t="n">
-        <v>2.191337840251799</v>
+        <v>2.191337840252064</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7377865845604469</v>
+        <v>0.7377865845605266</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6905911336380968</v>
+        <v>0.6905911336381062</v>
       </c>
       <c r="U10" t="n">
-        <v>1.09447184135048</v>
+        <v>1.094471841350479</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2797426281214872</v>
+        <v>0.2797426281214851</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005050999999994588</v>
+        <v>0.002061299999994048</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1320,13 +1320,13 @@
         <v>359.9617172414586</v>
       </c>
       <c r="F11" t="n">
-        <v>42.32756062196236</v>
+        <v>42.32756062196235</v>
       </c>
       <c r="G11" t="n">
-        <v>2.829202044845721</v>
+        <v>2.829202044845734</v>
       </c>
       <c r="H11" t="n">
-        <v>6.665189559983939</v>
+        <v>6.665189559983947</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>47.7244223104378</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08206568242091498</v>
+        <v>0.08206568242091557</v>
       </c>
       <c r="R11" t="n">
-        <v>4.352375026375626</v>
+        <v>4.352375026375688</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2653088909273847</v>
+        <v>0.2653088909273862</v>
       </c>
       <c r="T11" t="n">
-        <v>6.834873120107013</v>
+        <v>6.834873120107126</v>
       </c>
       <c r="U11" t="n">
         <v>1.047008349106265</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7035541017133522</v>
+        <v>0.7035541017133498</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002192100000002029</v>
+        <v>0.001525399999998456</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9183818374771</v>
       </c>
       <c r="F12" t="n">
-        <v>40.34022092031325</v>
+        <v>40.34022092031324</v>
       </c>
       <c r="G12" t="n">
-        <v>140.4474834578711</v>
+        <v>140.4474834578712</v>
       </c>
       <c r="H12" t="n">
-        <v>3.505222714747313</v>
+        <v>3.505222714747314</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>6.275017637453456</v>
       </c>
       <c r="P12" t="n">
-        <v>34.68844058050791</v>
+        <v>34.68844058050789</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08852444338590651</v>
+        <v>0.08852444338590923</v>
       </c>
       <c r="R12" t="n">
-        <v>1.934371561314155</v>
+        <v>1.93437156131415</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3881639047060072</v>
+        <v>0.3881639047060187</v>
       </c>
       <c r="T12" t="n">
-        <v>2.703951813048529</v>
+        <v>2.703951813048642</v>
       </c>
       <c r="U12" t="n">
         <v>0.8895785313722888</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2602845230832357</v>
+        <v>0.2602845230832371</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00232239999999706</v>
+        <v>0.001717400000003977</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1484,13 +1484,13 @@
         <v>0.05256716621674903</v>
       </c>
       <c r="F13" t="n">
-        <v>36.09026821820576</v>
+        <v>36.09026821820578</v>
       </c>
       <c r="G13" t="n">
-        <v>29.47157877648009</v>
+        <v>29.47157877648046</v>
       </c>
       <c r="H13" t="n">
-        <v>2.560788799147963</v>
+        <v>2.560788799147929</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>4.29583677885302</v>
       </c>
       <c r="P13" t="n">
-        <v>36.25104181128633</v>
+        <v>36.25104181128631</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07779031329135024</v>
+        <v>0.07779031329134889</v>
       </c>
       <c r="R13" t="n">
-        <v>2.103229460539608</v>
+        <v>2.103229460539619</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2942345857075227</v>
+        <v>0.2942345857075173</v>
       </c>
       <c r="T13" t="n">
-        <v>3.329306430727692</v>
+        <v>3.32930643072764</v>
       </c>
       <c r="U13" t="n">
         <v>0.9630196251308278</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8495079904667545</v>
+        <v>0.8495079904667725</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002413400000008892</v>
+        <v>0.001640800000004106</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,13 +1566,13 @@
         <v>0.09265746206186665</v>
       </c>
       <c r="F14" t="n">
-        <v>43.92203307764656</v>
+        <v>43.92203307764655</v>
       </c>
       <c r="G14" t="n">
-        <v>26.19930976418974</v>
+        <v>26.19930976418972</v>
       </c>
       <c r="H14" t="n">
-        <v>14.75333876092809</v>
+        <v>14.7533387609281</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>50.60676945916118</v>
       </c>
       <c r="O14" t="n">
-        <v>8.999595434416763</v>
+        <v>8.999595434416776</v>
       </c>
       <c r="P14" t="n">
-        <v>57.90360080324221</v>
+        <v>57.90360080324223</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1133732472809151</v>
+        <v>0.1133732472809201</v>
       </c>
       <c r="R14" t="n">
-        <v>3.077113566436301</v>
+        <v>3.077113566436486</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8857723515719804</v>
+        <v>0.8857723515720699</v>
       </c>
       <c r="T14" t="n">
-        <v>3.339310555918463</v>
+        <v>3.339310555918729</v>
       </c>
       <c r="U14" t="n">
         <v>1.006957318044359</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9144670274478492</v>
+        <v>0.9144670274478606</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.004919399999991469</v>
+        <v>0.001820699999996123</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -1648,13 +1648,13 @@
         <v>359.9894046910826</v>
       </c>
       <c r="F15" t="n">
-        <v>40.84257291653917</v>
+        <v>40.84257291653915</v>
       </c>
       <c r="G15" t="n">
-        <v>135.51781883431</v>
+        <v>135.5178188343103</v>
       </c>
       <c r="H15" t="n">
-        <v>5.739485777624375</v>
+        <v>5.739485777624389</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>10.19163431778955</v>
       </c>
       <c r="P15" t="n">
-        <v>33.84632551485212</v>
+        <v>33.84632551485205</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09516984592573076</v>
+        <v>0.09516984592573417</v>
       </c>
       <c r="R15" t="n">
-        <v>1.916957344523757</v>
+        <v>1.91695734452368</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5370953251956996</v>
+        <v>0.5370953251956985</v>
       </c>
       <c r="T15" t="n">
-        <v>1.817238633803167</v>
+        <v>1.817238633803269</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8771130521551461</v>
+        <v>0.8771130521551463</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2579766161811367</v>
+        <v>0.2579766161811195</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002219799999991778</v>
+        <v>0.001687199999999223</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>0.1820450268784439</v>
       </c>
       <c r="F16" t="n">
-        <v>39.35596182047839</v>
+        <v>39.35596182047843</v>
       </c>
       <c r="G16" t="n">
-        <v>91.00247225354327</v>
+        <v>91.00247225354323</v>
       </c>
       <c r="H16" t="n">
-        <v>12.04368043727489</v>
+        <v>12.04368043727491</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>23.342525222425</v>
       </c>
       <c r="P16" t="n">
-        <v>39.73909088835599</v>
+        <v>39.73909088835605</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0973913249719269</v>
+        <v>0.09739132497193645</v>
       </c>
       <c r="R16" t="n">
-        <v>2.484203985523057</v>
+        <v>2.484203985524009</v>
       </c>
       <c r="S16" t="n">
-        <v>1.199939130805216</v>
+        <v>1.199939130805692</v>
       </c>
       <c r="T16" t="n">
-        <v>0.878089676914189</v>
+        <v>0.878089676914293</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03876958662726</v>
+        <v>1.038769586627261</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1090598225912335</v>
+        <v>0.1090598225912279</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003942399999999679</v>
+        <v>0.002072800000000541</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>0.05493270902851863</v>
       </c>
       <c r="F17" t="n">
-        <v>39.55607847603786</v>
+        <v>39.55607847603788</v>
       </c>
       <c r="G17" t="n">
-        <v>155.1958384491545</v>
+        <v>155.1958384491546</v>
       </c>
       <c r="H17" t="n">
-        <v>5.329762343857253</v>
+        <v>5.329762343857269</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>7.124555272911093</v>
       </c>
       <c r="P17" t="n">
-        <v>31.3762669038939</v>
+        <v>31.37626690389389</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08688660885568211</v>
+        <v>0.086886608855683</v>
       </c>
       <c r="R17" t="n">
-        <v>1.730753096464199</v>
+        <v>1.730753096464182</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3806250328729047</v>
+        <v>0.3806250328728995</v>
       </c>
       <c r="T17" t="n">
-        <v>2.314656050656588</v>
+        <v>2.314656050656623</v>
       </c>
       <c r="U17" t="n">
-        <v>1.001606922768488</v>
+        <v>1.001606922768487</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1925538443494299</v>
+        <v>0.1925538443494402</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002365999999994983</v>
+        <v>0.001821300000003134</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>36.04443302653782</v>
       </c>
       <c r="G18" t="n">
-        <v>44.255139288225</v>
+        <v>44.25513928822494</v>
       </c>
       <c r="H18" t="n">
-        <v>7.072453362999868</v>
+        <v>7.072453362999879</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1921,28 +1921,28 @@
         <v>46.64286093130009</v>
       </c>
       <c r="O18" t="n">
-        <v>10.2065002936318</v>
+        <v>10.20650029363181</v>
       </c>
       <c r="P18" t="n">
-        <v>40.14197456775283</v>
+        <v>40.14197456775285</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08880846420937204</v>
+        <v>0.0888084642093705</v>
       </c>
       <c r="R18" t="n">
-        <v>1.823653985739256</v>
+        <v>1.823653985739301</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5756814582190798</v>
+        <v>0.5756814582190852</v>
       </c>
       <c r="T18" t="n">
-        <v>1.984960260367005</v>
+        <v>1.984960260366972</v>
       </c>
       <c r="U18" t="n">
-        <v>0.853171907716393</v>
+        <v>0.8531719077163932</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9564284212832574</v>
+        <v>0.9564284212832521</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001925799999995093</v>
+        <v>0.001483200000002682</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -1976,13 +1976,13 @@
         <v>359.8220492580266</v>
       </c>
       <c r="F19" t="n">
-        <v>39.38463961753856</v>
+        <v>39.38463961753855</v>
       </c>
       <c r="G19" t="n">
-        <v>45.29049880600527</v>
+        <v>45.29049880600531</v>
       </c>
       <c r="H19" t="n">
-        <v>11.13880257064075</v>
+        <v>11.13880257064073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>12.86792939630831</v>
       </c>
       <c r="P19" t="n">
-        <v>47.36105770141698</v>
+        <v>47.36105770141696</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1036151127638402</v>
+        <v>0.1036151127638414</v>
       </c>
       <c r="R19" t="n">
-        <v>2.397136437962061</v>
+        <v>2.397136437961848</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8813716259261537</v>
+        <v>0.8813716259260977</v>
       </c>
       <c r="T19" t="n">
-        <v>1.982780862535866</v>
+        <v>1.982780862535877</v>
       </c>
       <c r="U19" t="n">
-        <v>1.030396823491397</v>
+        <v>1.030396823491396</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7636922849665235</v>
+        <v>0.7636922849665175</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002501000000009412</v>
+        <v>0.001789999999999736</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,10 +2058,10 @@
         <v>359.6653044019845</v>
       </c>
       <c r="F20" t="n">
-        <v>43.00508528960093</v>
+        <v>43.00508528960095</v>
       </c>
       <c r="G20" t="n">
-        <v>105.2702449936528</v>
+        <v>105.2702449936527</v>
       </c>
       <c r="H20" t="n">
         <v>10.10321157646886</v>
@@ -2085,28 +2085,28 @@
         <v>34.20258136458548</v>
       </c>
       <c r="O20" t="n">
-        <v>18.73492087769296</v>
+        <v>18.73492087769295</v>
       </c>
       <c r="P20" t="n">
-        <v>39.27595263730627</v>
+        <v>39.2759526373063</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1153305504339992</v>
+        <v>0.1153305504339733</v>
       </c>
       <c r="R20" t="n">
-        <v>2.689110244329417</v>
+        <v>2.689110244328521</v>
       </c>
       <c r="S20" t="n">
-        <v>1.057577450637301</v>
+        <v>1.057577450636891</v>
       </c>
       <c r="T20" t="n">
-        <v>1.076878677840739</v>
+        <v>1.076878677840582</v>
       </c>
       <c r="U20" t="n">
         <v>1.021189167704974</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8849300637262265</v>
+        <v>0.8849300637262314</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002699599999999691</v>
+        <v>0.00813470000000649</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2143,10 +2143,10 @@
         <v>38.78447888997305</v>
       </c>
       <c r="G21" t="n">
-        <v>15.81392594026553</v>
+        <v>15.81392594026554</v>
       </c>
       <c r="H21" t="n">
-        <v>13.5973890804034</v>
+        <v>13.59738908040339</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>6.195024919822166</v>
       </c>
       <c r="P21" t="n">
-        <v>52.17208420091546</v>
+        <v>52.17208420091545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09673942934865259</v>
+        <v>0.09673942934865254</v>
       </c>
       <c r="R21" t="n">
-        <v>2.514732187304664</v>
+        <v>2.514732187304686</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5554528015306621</v>
+        <v>0.5554528015306657</v>
       </c>
       <c r="T21" t="n">
-        <v>3.650862252555454</v>
+        <v>3.650862252555437</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9648493439443362</v>
+        <v>0.9648493439443365</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3648954026407744</v>
+        <v>0.3648954026407717</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001945100000000366</v>
+        <v>0.001558799999997973</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,13 +2222,13 @@
         <v>0.1251386009833291</v>
       </c>
       <c r="F22" t="n">
-        <v>36.98671918041783</v>
+        <v>36.98671918041786</v>
       </c>
       <c r="G22" t="n">
         <v>109.4000777810465</v>
       </c>
       <c r="H22" t="n">
-        <v>12.33817737060534</v>
+        <v>12.33817737060535</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2249,28 +2249,28 @@
         <v>37.03369549700079</v>
       </c>
       <c r="O22" t="n">
-        <v>27.32292135625939</v>
+        <v>27.32292135625938</v>
       </c>
       <c r="P22" t="n">
-        <v>33.1508527035753</v>
+        <v>33.15085270357535</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09071358496563717</v>
+        <v>0.0907135849656301</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15467698157127</v>
+        <v>2.154676981570725</v>
       </c>
       <c r="S22" t="n">
-        <v>1.085677834892701</v>
+        <v>1.085677834892427</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5620590193628935</v>
+        <v>0.5620590193628975</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9421781048731812</v>
+        <v>0.9421781048731815</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5537806189875571</v>
+        <v>0.5537806189875591</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002923400000000242</v>
+        <v>0.002242700000003595</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,13 +2304,13 @@
         <v>359.8650330091689</v>
       </c>
       <c r="F23" t="n">
-        <v>44.22286006471854</v>
+        <v>44.22286006471853</v>
       </c>
       <c r="G23" t="n">
-        <v>9.300117318200932</v>
+        <v>9.300117318200908</v>
       </c>
       <c r="H23" t="n">
-        <v>10.85171753135294</v>
+        <v>10.85171753135298</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>3.332230928698008</v>
       </c>
       <c r="P23" t="n">
-        <v>54.54949405177673</v>
+        <v>54.54949405177679</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09793078096457912</v>
+        <v>0.09793078096457795</v>
       </c>
       <c r="R23" t="n">
-        <v>3.609086363296023</v>
+        <v>3.609086363296008</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4233468953699485</v>
+        <v>0.423346895369946</v>
       </c>
       <c r="T23" t="n">
-        <v>5.835441144823657</v>
+        <v>5.835441144823586</v>
       </c>
       <c r="U23" t="n">
         <v>1.013035815902324</v>
       </c>
       <c r="V23" t="n">
-        <v>2.140515956591185</v>
+        <v>2.140515956591205</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002734300000000189</v>
+        <v>0.001479199999998571</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>0.01301743066816703</v>
       </c>
       <c r="F24" t="n">
-        <v>43.12550247484396</v>
+        <v>43.12550247484394</v>
       </c>
       <c r="G24" t="n">
-        <v>51.11984321674458</v>
+        <v>51.11984321674467</v>
       </c>
       <c r="H24" t="n">
-        <v>7.001463970474332</v>
+        <v>7.001463970474317</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>9.572131651051764</v>
       </c>
       <c r="P24" t="n">
-        <v>46.4293004088925</v>
+        <v>46.42930040889247</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1066175038857012</v>
+        <v>0.1066175038857037</v>
       </c>
       <c r="R24" t="n">
-        <v>2.563660579503831</v>
+        <v>2.5636605795039</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7244502236482101</v>
+        <v>0.7244502236482501</v>
       </c>
       <c r="T24" t="n">
-        <v>2.53332975719299</v>
+        <v>2.533329757193094</v>
       </c>
       <c r="U24" t="n">
         <v>1.103180834558776</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8869588109518807</v>
+        <v>0.8869588109518859</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002260199999994938</v>
+        <v>0.001621499999998832</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2501,16 +2501,16 @@
         <v>40.15803431314102</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1023818869550288</v>
+        <v>0.1023818869550411</v>
       </c>
       <c r="R25" t="n">
-        <v>2.583071648144668</v>
+        <v>2.583071648145429</v>
       </c>
       <c r="S25" t="n">
-        <v>1.384160668915949</v>
+        <v>1.384160668916362</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7229607174739754</v>
+        <v>0.7229607174740367</v>
       </c>
       <c r="U25" t="n">
         <v>0.9162173362503045</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003150500000003831</v>
+        <v>0.002139399999997238</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2550,13 +2550,13 @@
         <v>359.8429563524065</v>
       </c>
       <c r="F26" t="n">
-        <v>37.81569654350906</v>
+        <v>37.81569654350907</v>
       </c>
       <c r="G26" t="n">
         <v>168.0698666006171</v>
       </c>
       <c r="H26" t="n">
-        <v>8.15913309563004</v>
+        <v>8.159133095630043</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2580,25 +2580,25 @@
         <v>6.878957408883537</v>
       </c>
       <c r="P26" t="n">
-        <v>25.80547648988219</v>
+        <v>25.8054764898822</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07790292047070412</v>
+        <v>0.07790292047070295</v>
       </c>
       <c r="R26" t="n">
-        <v>1.447820930346214</v>
+        <v>1.447820930346198</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3049337124315838</v>
+        <v>0.3049337124315732</v>
       </c>
       <c r="T26" t="n">
-        <v>2.007131466713007</v>
+        <v>2.007131466712984</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9723742478811451</v>
+        <v>0.9723742478811453</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9599699971421405</v>
+        <v>0.9599699971421404</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002943700000002991</v>
+        <v>0.001652399999997556</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,7 +2632,7 @@
         <v>0.01743920814914874</v>
       </c>
       <c r="F27" t="n">
-        <v>42.77812024171305</v>
+        <v>42.77812024171306</v>
       </c>
       <c r="G27" t="n">
         <v>155.2698193195747</v>
@@ -2662,25 +2662,25 @@
         <v>12.81670064299948</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3339747507066</v>
+        <v>29.33397475070661</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.09852804858175243</v>
+        <v>0.09852804858174556</v>
       </c>
       <c r="R27" t="n">
-        <v>2.005903723784821</v>
+        <v>2.005903723784634</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5863312986134698</v>
+        <v>0.5863312986134008</v>
       </c>
       <c r="T27" t="n">
-        <v>1.323824049588786</v>
+        <v>1.323824049588714</v>
       </c>
       <c r="U27" t="n">
         <v>1.068343939294375</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3691234309010734</v>
+        <v>0.3691234309010742</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003699400000002129</v>
+        <v>0.001627100000000326</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2714,13 +2714,13 @@
         <v>0.06868908987582419</v>
       </c>
       <c r="F28" t="n">
-        <v>40.25685555910905</v>
+        <v>40.25685555910904</v>
       </c>
       <c r="G28" t="n">
-        <v>61.94446704496203</v>
+        <v>61.94446704496215</v>
       </c>
       <c r="H28" t="n">
-        <v>8.347602652323186</v>
+        <v>8.347602652323165</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>13.36047307289987</v>
       </c>
       <c r="P28" t="n">
-        <v>43.52990291120972</v>
+        <v>43.52990291120968</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1009151352522339</v>
+        <v>0.1009151352522284</v>
       </c>
       <c r="R28" t="n">
-        <v>2.349310354867208</v>
+        <v>2.349310354866839</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8362182852229</v>
+        <v>0.8362182852227369</v>
       </c>
       <c r="T28" t="n">
-        <v>1.776759738148188</v>
+        <v>1.776759738148028</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9601601375259818</v>
+        <v>0.9601601375259814</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4766679186148248</v>
+        <v>0.476667918614835</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002494099999992727</v>
+        <v>0.002293000000001655</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,7 +2796,7 @@
         <v>359.7826961379083</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6738786300423</v>
+        <v>40.67387863004228</v>
       </c>
       <c r="G29" t="n">
         <v>73.11415925578208</v>
@@ -2823,28 +2823,28 @@
         <v>43.97582692503995</v>
       </c>
       <c r="O29" t="n">
-        <v>21.55276034596508</v>
+        <v>21.55276034596509</v>
       </c>
       <c r="P29" t="n">
-        <v>46.11565747888518</v>
+        <v>46.11565747888514</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1112137506977454</v>
+        <v>0.1112137506977756</v>
       </c>
       <c r="R29" t="n">
-        <v>2.779226235813274</v>
+        <v>2.779226235814358</v>
       </c>
       <c r="S29" t="n">
-        <v>1.365861235396255</v>
+        <v>1.365861235396887</v>
       </c>
       <c r="T29" t="n">
-        <v>1.196121643551755</v>
+        <v>1.196121643552152</v>
       </c>
       <c r="U29" t="n">
         <v>1.035111485464578</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4074675287619174</v>
+        <v>0.4074675287619147</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.005055699999999774</v>
+        <v>0.002101699999997209</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9825549664573</v>
       </c>
       <c r="F30" t="n">
-        <v>39.78245923570612</v>
+        <v>39.78245923570609</v>
       </c>
       <c r="G30" t="n">
-        <v>129.5653799078035</v>
+        <v>129.5653799078036</v>
       </c>
       <c r="H30" t="n">
-        <v>9.584231005096839</v>
+        <v>9.584231005096834</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>18.5691244794524</v>
       </c>
       <c r="P30" t="n">
-        <v>31.47919011936838</v>
+        <v>31.47919011936834</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.09672634337828828</v>
+        <v>0.09672634337828991</v>
       </c>
       <c r="R30" t="n">
-        <v>2.089641329703481</v>
+        <v>2.089641329703522</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7845499780642652</v>
+        <v>0.7845499780642857</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8884767675668939</v>
+        <v>0.888476767566918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9583945291646231</v>
+        <v>0.9583945291646223</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0957646790120591</v>
+        <v>0.09576467901205535</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002715899999998328</v>
+        <v>0.001772199999997781</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>136.0127580488636</v>
       </c>
       <c r="H31" t="n">
-        <v>4.661581752790935</v>
+        <v>4.661581752790936</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,22 +2987,22 @@
         <v>30.68820409084247</v>
       </c>
       <c r="O31" t="n">
-        <v>8.24612305918984</v>
+        <v>8.246123059189852</v>
       </c>
       <c r="P31" t="n">
         <v>34.74197317241422</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.09389559816692221</v>
+        <v>0.09389559816692135</v>
       </c>
       <c r="R31" t="n">
-        <v>1.921235018551511</v>
+        <v>1.921235018551548</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4748506507585054</v>
+        <v>0.4748506507585081</v>
       </c>
       <c r="T31" t="n">
-        <v>2.211802730416799</v>
+        <v>2.211802730416753</v>
       </c>
       <c r="U31" t="n">
         <v>1.005569798851134</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002339399999996772</v>
+        <v>0.001583400000001234</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.09920633684120751</v>
       </c>
       <c r="F32" t="n">
-        <v>37.58742695810718</v>
+        <v>37.58742695810714</v>
       </c>
       <c r="G32" t="n">
-        <v>119.619749124298</v>
+        <v>119.6197491242981</v>
       </c>
       <c r="H32" t="n">
-        <v>6.993236327632218</v>
+        <v>6.993236327632214</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>15.47017608208705</v>
       </c>
       <c r="P32" t="n">
-        <v>31.98212123395225</v>
+        <v>31.9821212339522</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.08973720321069208</v>
+        <v>0.08973720321069784</v>
       </c>
       <c r="R32" t="n">
-        <v>1.799793932310859</v>
+        <v>1.7997939323111</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6525475479811887</v>
+        <v>0.6525475479812881</v>
       </c>
       <c r="T32" t="n">
-        <v>1.125178648199358</v>
+        <v>1.125178648199426</v>
       </c>
       <c r="U32" t="n">
         <v>0.9934919408387525</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4483907001594103</v>
+        <v>0.4483907001594172</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002973400000001902</v>
+        <v>0.001683900000003291</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3124,10 +3124,10 @@
         <v>0.1736355372339021</v>
       </c>
       <c r="F33" t="n">
-        <v>38.1730735982338</v>
+        <v>38.17307359823381</v>
       </c>
       <c r="G33" t="n">
-        <v>50.17490521072534</v>
+        <v>50.17490521072533</v>
       </c>
       <c r="H33" t="n">
         <v>13.74321159057308</v>
@@ -3154,25 +3154,25 @@
         <v>16.83174062157534</v>
       </c>
       <c r="P33" t="n">
-        <v>48.18287108219023</v>
+        <v>48.18287108219026</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0985378711805811</v>
+        <v>0.0985378711805744</v>
       </c>
       <c r="R33" t="n">
-        <v>2.438632848636164</v>
+        <v>2.438632848636113</v>
       </c>
       <c r="S33" t="n">
-        <v>1.096927773511539</v>
+        <v>1.096927773511461</v>
       </c>
       <c r="T33" t="n">
-        <v>1.674154561565596</v>
+        <v>1.674154561565436</v>
       </c>
       <c r="U33" t="n">
         <v>1.025344018088596</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2907546101981132</v>
+        <v>0.2907546101981115</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002705399999996416</v>
+        <v>0.002081599999996797</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3209,10 +3209,10 @@
         <v>38.51086836576988</v>
       </c>
       <c r="G34" t="n">
-        <v>148.7920625763101</v>
+        <v>148.7920625763102</v>
       </c>
       <c r="H34" t="n">
-        <v>6.319249526102774</v>
+        <v>6.319249526102787</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>9.648628038638885</v>
       </c>
       <c r="P34" t="n">
-        <v>29.83058777134908</v>
+        <v>29.83058777134906</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08754928080465361</v>
+        <v>0.08754928080465338</v>
       </c>
       <c r="R34" t="n">
-        <v>1.603178831767924</v>
+        <v>1.60317883176792</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4409263870928155</v>
+        <v>0.4409263870928143</v>
       </c>
       <c r="T34" t="n">
-        <v>1.685451078245826</v>
+        <v>1.685451078245812</v>
       </c>
       <c r="U34" t="n">
         <v>1.010345956729924</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5559817733225415</v>
+        <v>0.5559817733225331</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.004595599999987598</v>
+        <v>0.00158569999999969</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,13 +3288,13 @@
         <v>0.2992430582587577</v>
       </c>
       <c r="F35" t="n">
-        <v>39.05291327790859</v>
+        <v>39.05291327790857</v>
       </c>
       <c r="G35" t="n">
-        <v>75.01918159343245</v>
+        <v>75.01918159343242</v>
       </c>
       <c r="H35" t="n">
-        <v>4.867572579265566</v>
+        <v>4.867572579265564</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,19 +3318,19 @@
         <v>10.47681847592562</v>
       </c>
       <c r="P35" t="n">
-        <v>38.58925227491407</v>
+        <v>38.58925227491405</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.09371414957482753</v>
+        <v>0.09371414957482704</v>
       </c>
       <c r="R35" t="n">
-        <v>1.974978356967743</v>
+        <v>1.974978356967593</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5946163826818438</v>
+        <v>0.5946163826817948</v>
       </c>
       <c r="T35" t="n">
-        <v>1.977585650278658</v>
+        <v>1.977585650278614</v>
       </c>
       <c r="U35" t="n">
         <v>0.9598279955541784</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.00192769999999598</v>
+        <v>0.001462199999998859</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3370,13 +3370,13 @@
         <v>359.9540675912555</v>
       </c>
       <c r="F36" t="n">
-        <v>41.25119304569175</v>
+        <v>41.25119304569177</v>
       </c>
       <c r="G36" t="n">
-        <v>8.841403282040913</v>
+        <v>8.841403282040925</v>
       </c>
       <c r="H36" t="n">
-        <v>10.3891704446159</v>
+        <v>10.38917044461589</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>51.04509876955863</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.09227705151904261</v>
+        <v>0.09227705151904378</v>
       </c>
       <c r="R36" t="n">
-        <v>3.252119953906312</v>
+        <v>3.252119953906323</v>
       </c>
       <c r="S36" t="n">
-        <v>0.3871479366182938</v>
+        <v>0.3871479366182923</v>
       </c>
       <c r="T36" t="n">
-        <v>5.281560013018019</v>
+        <v>5.281560013018098</v>
       </c>
       <c r="U36" t="n">
         <v>0.9553206119045033</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5267344735847964</v>
+        <v>0.5267344735847994</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001893600000002493</v>
+        <v>0.001738000000003126</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9359508716776</v>
       </c>
       <c r="F37" t="n">
-        <v>40.67115353486097</v>
+        <v>40.67115353486093</v>
       </c>
       <c r="G37" t="n">
-        <v>86.48460860560164</v>
+        <v>86.48460860560189</v>
       </c>
       <c r="H37" t="n">
-        <v>6.878261990929373</v>
+        <v>6.878261990929351</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>13.64844135175826</v>
       </c>
       <c r="P37" t="n">
-        <v>39.68139742821739</v>
+        <v>39.6813974282173</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1014596652609429</v>
+        <v>0.1014596652609386</v>
       </c>
       <c r="R37" t="n">
-        <v>2.259796316939342</v>
+        <v>2.259796316938906</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7807754170966181</v>
+        <v>0.7807754170964704</v>
       </c>
       <c r="T37" t="n">
-        <v>1.56867492260644</v>
+        <v>1.568674922606369</v>
       </c>
       <c r="U37" t="n">
         <v>1.043714869936708</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2424667315826107</v>
+        <v>0.2424667315826056</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00244190000000799</v>
+        <v>0.001768399999996006</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>0.09272484433477984</v>
       </c>
       <c r="F38" t="n">
-        <v>38.42293779468878</v>
+        <v>38.42293779468875</v>
       </c>
       <c r="G38" t="n">
         <v>134.766358089962</v>
       </c>
       <c r="H38" t="n">
-        <v>9.958965924220861</v>
+        <v>9.958965924220857</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>19.53339559678897</v>
       </c>
       <c r="P38" t="n">
-        <v>29.06327739849231</v>
+        <v>29.06327739849228</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.09118460587425999</v>
+        <v>0.09118460587426422</v>
       </c>
       <c r="R38" t="n">
-        <v>1.920632144923669</v>
+        <v>1.920632144923961</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7347638745105057</v>
+        <v>0.7347638745106173</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7820913572176578</v>
+        <v>0.7820913572176686</v>
       </c>
       <c r="U38" t="n">
-        <v>1.10597865924713</v>
+        <v>1.105978659247131</v>
       </c>
       <c r="V38" t="n">
-        <v>0.2669103594261596</v>
+        <v>0.2669103594261636</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002486300000001052</v>
+        <v>0.0022656000000012</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3616,7 +3616,7 @@
         <v>359.817757377228</v>
       </c>
       <c r="F39" t="n">
-        <v>40.83169960993747</v>
+        <v>40.83169960993748</v>
       </c>
       <c r="G39" t="n">
         <v>154.6839274330374</v>
@@ -3649,19 +3649,19 @@
         <v>32.86774313478391</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.08816811961938179</v>
+        <v>0.08816811961938184</v>
       </c>
       <c r="R39" t="n">
-        <v>1.874477009173197</v>
+        <v>1.874477009173229</v>
       </c>
       <c r="S39" t="n">
-        <v>0.3794807362792482</v>
+        <v>0.3794807362792427</v>
       </c>
       <c r="T39" t="n">
-        <v>2.56628743879832</v>
+        <v>2.566287438798308</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9648796519422046</v>
+        <v>0.9648796519422048</v>
       </c>
       <c r="V39" t="n">
         <v>1.776115640929296</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002191099999990342</v>
+        <v>0.001563900000000729</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>359.7821544459007</v>
       </c>
       <c r="F40" t="n">
-        <v>41.1701859330515</v>
+        <v>41.17018593305153</v>
       </c>
       <c r="G40" t="n">
-        <v>68.41281685877181</v>
+        <v>68.41281685877182</v>
       </c>
       <c r="H40" t="n">
-        <v>14.18602674057318</v>
+        <v>14.18602674057319</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>20.59736722247182</v>
       </c>
       <c r="P40" t="n">
-        <v>47.87716922286658</v>
+        <v>47.87716922286662</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1129840013399938</v>
+        <v>0.1129840013399692</v>
       </c>
       <c r="R40" t="n">
-        <v>2.860732133670621</v>
+        <v>2.860732133669785</v>
       </c>
       <c r="S40" t="n">
-        <v>1.381293181084747</v>
+        <v>1.381293181084244</v>
       </c>
       <c r="T40" t="n">
-        <v>1.330962786341627</v>
+        <v>1.330962786341244</v>
       </c>
       <c r="U40" t="n">
         <v>1.062834613126297</v>
       </c>
       <c r="V40" t="n">
-        <v>0.2719451924377309</v>
+        <v>0.2719451924377331</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002950100000006728</v>
+        <v>0.001923300000001404</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,13 +3780,13 @@
         <v>0.004232822703739915</v>
       </c>
       <c r="F41" t="n">
-        <v>37.91651914815539</v>
+        <v>37.91651914815534</v>
       </c>
       <c r="G41" t="n">
-        <v>98.03893983332412</v>
+        <v>98.03893983332422</v>
       </c>
       <c r="H41" t="n">
-        <v>11.79868034205218</v>
+        <v>11.79868034205215</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3810,25 +3810,25 @@
         <v>24.51091983596698</v>
       </c>
       <c r="P41" t="n">
-        <v>36.62029742910624</v>
+        <v>36.62029742910615</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.09617835555603797</v>
+        <v>0.09617835555602375</v>
       </c>
       <c r="R41" t="n">
-        <v>2.273663399908071</v>
+        <v>2.273663399907606</v>
       </c>
       <c r="S41" t="n">
-        <v>1.118606202006935</v>
+        <v>1.11860620200665</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7352424018718443</v>
+        <v>0.7352424018717606</v>
       </c>
       <c r="U41" t="n">
-        <v>1.044338760023647</v>
+        <v>1.044338760023646</v>
       </c>
       <c r="V41" t="n">
-        <v>0.2736376743781056</v>
+        <v>0.2736376743781124</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002709600000002865</v>
+        <v>0.002087299999999459</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>40.91167026367167</v>
       </c>
       <c r="G42" t="n">
-        <v>45.79761350610385</v>
+        <v>45.79761350610391</v>
       </c>
       <c r="H42" t="n">
-        <v>5.568733221997441</v>
+        <v>5.568733221997435</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>43.3618388127624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.09844887619039568</v>
+        <v>0.0984488761903925</v>
       </c>
       <c r="R42" t="n">
-        <v>2.250000599884873</v>
+        <v>2.250000599884851</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5635892265612994</v>
+        <v>0.5635892265612708</v>
       </c>
       <c r="T42" t="n">
-        <v>2.713433978104775</v>
+        <v>2.713433978104661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9689165777878924</v>
+        <v>0.9689165777878926</v>
       </c>
       <c r="V42" t="n">
-        <v>2.192246989065347</v>
+        <v>2.192246989065341</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001899899999997956</v>
+        <v>0.001682000000002404</v>
       </c>
       <c r="Y42" t="n">
         <v>7</v>
@@ -3944,13 +3944,13 @@
         <v>0.2398677836684896</v>
       </c>
       <c r="F43" t="n">
-        <v>39.9662965678776</v>
+        <v>39.96629656787758</v>
       </c>
       <c r="G43" t="n">
         <v>147.6190325202319</v>
       </c>
       <c r="H43" t="n">
-        <v>3.316971716573843</v>
+        <v>3.316971716573842</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>34.16475935192363</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08925085081453096</v>
+        <v>0.0892508508145323</v>
       </c>
       <c r="R43" t="n">
-        <v>1.97202017801648</v>
+        <v>1.972020178016492</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3624818488209288</v>
+        <v>0.3624818488209329</v>
       </c>
       <c r="T43" t="n">
-        <v>2.909349008935922</v>
+        <v>2.909349008935974</v>
       </c>
       <c r="U43" t="n">
         <v>1.00223767131256</v>
       </c>
       <c r="V43" t="n">
-        <v>3.016903128602782</v>
+        <v>3.016903128602783</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002205699999990429</v>
+        <v>0.001560200000000123</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,10 +4026,10 @@
         <v>0.2074723156799282</v>
       </c>
       <c r="F44" t="n">
-        <v>39.41772208480029</v>
+        <v>39.41772208480027</v>
       </c>
       <c r="G44" t="n">
-        <v>73.83934837832601</v>
+        <v>73.83934837832599</v>
       </c>
       <c r="H44" t="n">
         <v>12.80217727486134</v>
@@ -4056,25 +4056,25 @@
         <v>21.36474239917449</v>
       </c>
       <c r="P44" t="n">
-        <v>44.10810226098366</v>
+        <v>44.10810226098363</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.09902648575245832</v>
+        <v>0.09902648575245848</v>
       </c>
       <c r="R44" t="n">
-        <v>2.570739989619337</v>
+        <v>2.570739989619235</v>
       </c>
       <c r="S44" t="n">
-        <v>1.248090284795172</v>
+        <v>1.248090284795136</v>
       </c>
       <c r="T44" t="n">
-        <v>1.158496442649905</v>
+        <v>1.158496442649899</v>
       </c>
       <c r="U44" t="n">
         <v>0.9375152530911252</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5741655978101897</v>
+        <v>0.5741655978101916</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002646900000002006</v>
+        <v>0.001934699999999623</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
         <v>38.05368831387579</v>
       </c>
       <c r="G45" t="n">
-        <v>16.90908444692556</v>
+        <v>16.90908444692553</v>
       </c>
       <c r="H45" t="n">
-        <v>12.66192154407018</v>
+        <v>12.66192154407019</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>6.323766933175196</v>
       </c>
       <c r="P45" t="n">
-        <v>50.2806487689091</v>
+        <v>50.28064876890912</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.09398125456187979</v>
+        <v>0.09398125456188304</v>
       </c>
       <c r="R45" t="n">
-        <v>2.378792885744578</v>
+        <v>2.378792885744618</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5360413568693649</v>
+        <v>0.5360413568693885</v>
       </c>
       <c r="T45" t="n">
-        <v>3.422696036127531</v>
+        <v>3.422696036127688</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9777338956896104</v>
+        <v>0.9777338956896101</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7345836972089033</v>
+        <v>0.7345836972089097</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003722800000005577</v>
+        <v>0.001492599999998845</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4193,10 +4193,10 @@
         <v>44.50812924603844</v>
       </c>
       <c r="G46" t="n">
-        <v>146.2740517842929</v>
+        <v>146.274051784293</v>
       </c>
       <c r="H46" t="n">
-        <v>4.643122198157598</v>
+        <v>4.643122198157613</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>6.566185715645021</v>
       </c>
       <c r="P46" t="n">
-        <v>37.50373147223108</v>
+        <v>37.50373147223105</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.09982535660184207</v>
+        <v>0.09982535660184259</v>
       </c>
       <c r="R46" t="n">
-        <v>2.269602586142882</v>
+        <v>2.269602586142878</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4627576571018879</v>
+        <v>0.4627576571018859</v>
       </c>
       <c r="T46" t="n">
-        <v>2.964387072372317</v>
+        <v>2.964387072372336</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9975952495676365</v>
+        <v>0.9975952495676362</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5829186352174379</v>
+        <v>0.5829186352174418</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002210300000001553</v>
+        <v>0.001622099999998738</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4269,7 +4269,7 @@
         <v>9.594536722136706</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08647541080034098</v>
+        <v>0.08647541080035369</v>
       </c>
       <c r="F47" t="n">
         <v>41.15815156762996</v>
@@ -4278,7 +4278,7 @@
         <v>179.7508464298257</v>
       </c>
       <c r="H47" t="n">
-        <v>13.70746400028372</v>
+        <v>13.70746400028374</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>3.378135704571292</v>
       </c>
       <c r="P47" t="n">
-        <v>22.13139674370862</v>
+        <v>22.1313967437086</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.07241184159053912</v>
+        <v>0.07241184159053851</v>
       </c>
       <c r="R47" t="n">
-        <v>2.061931902949329</v>
+        <v>2.061931902949322</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1885064409557474</v>
+        <v>0.1885064409557456</v>
       </c>
       <c r="T47" t="n">
-        <v>3.024866876447098</v>
+        <v>3.024866876447079</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9419926900606042</v>
+        <v>0.9419926900606044</v>
       </c>
       <c r="V47" t="n">
-        <v>1.381023512622397</v>
+        <v>1.381023512622404</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001889900000008993</v>
+        <v>0.001396900000003143</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4351,13 +4351,13 @@
         <v>10.61800447263276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05407840094894396</v>
+        <v>0.05407840094895668</v>
       </c>
       <c r="F48" t="n">
-        <v>40.2635854032748</v>
+        <v>40.26358540327477</v>
       </c>
       <c r="G48" t="n">
-        <v>143.797432972156</v>
+        <v>143.7974329721561</v>
       </c>
       <c r="H48" t="n">
         <v>11.04527485759574</v>
@@ -4384,25 +4384,25 @@
         <v>18.53643077422893</v>
       </c>
       <c r="P48" t="n">
-        <v>28.42655886776008</v>
+        <v>28.42655886776004</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.09504633102640542</v>
+        <v>0.09504633102639491</v>
       </c>
       <c r="R48" t="n">
-        <v>2.030157594284927</v>
+        <v>2.030157594284533</v>
       </c>
       <c r="S48" t="n">
-        <v>0.7205356119140668</v>
+        <v>0.7205356119138993</v>
       </c>
       <c r="T48" t="n">
-        <v>0.8233395191446805</v>
+        <v>0.8233395191446583</v>
       </c>
       <c r="U48" t="n">
         <v>1.030480104327549</v>
       </c>
       <c r="V48" t="n">
-        <v>0.2163336186555616</v>
+        <v>0.2163336186555651</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002471499999998628</v>
+        <v>0.002612100000000339</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,7 +4436,7 @@
         <v>0.02767588131715126</v>
       </c>
       <c r="F49" t="n">
-        <v>41.29174684319008</v>
+        <v>41.29174684319007</v>
       </c>
       <c r="G49" t="n">
         <v>21.97395889029633</v>
@@ -4466,25 +4466,25 @@
         <v>7.729832660273165</v>
       </c>
       <c r="P49" t="n">
-        <v>54.32886529367038</v>
+        <v>54.32886529367036</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1051410360796422</v>
+        <v>0.1051410360796407</v>
       </c>
       <c r="R49" t="n">
-        <v>2.705788202014873</v>
+        <v>2.7057882020148</v>
       </c>
       <c r="S49" t="n">
-        <v>0.707485122638253</v>
+        <v>0.7074851226382295</v>
       </c>
       <c r="T49" t="n">
-        <v>3.376752653344818</v>
+        <v>3.376752653344763</v>
       </c>
       <c r="U49" t="n">
         <v>0.9957854592171504</v>
       </c>
       <c r="V49" t="n">
-        <v>0.2251063805025586</v>
+        <v>0.2251063805025601</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002149799999997981</v>
+        <v>0.001568800000001147</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,13 +4518,13 @@
         <v>359.9862715104395</v>
       </c>
       <c r="F50" t="n">
-        <v>36.79792261807563</v>
+        <v>36.79792261807564</v>
       </c>
       <c r="G50" t="n">
         <v>2.305939574347154</v>
       </c>
       <c r="H50" t="n">
-        <v>15.78872051271243</v>
+        <v>15.78872051271241</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,25 +4548,25 @@
         <v>2.074576764014081</v>
       </c>
       <c r="P50" t="n">
-        <v>53.14751668988993</v>
+        <v>53.14751668988991</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.07864395897958311</v>
+        <v>0.07864395897958207</v>
       </c>
       <c r="R50" t="n">
-        <v>3.979261700306711</v>
+        <v>3.979261700306613</v>
       </c>
       <c r="S50" t="n">
-        <v>0.2880774978714493</v>
+        <v>0.288077497871445</v>
       </c>
       <c r="T50" t="n">
-        <v>6.478585241716146</v>
+        <v>6.478585241715953</v>
       </c>
       <c r="U50" t="n">
         <v>1.018784807848287</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4569065711153804</v>
+        <v>0.4569065711153773</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.00199749999998744</v>
+        <v>0.001395999999999731</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9687633111132</v>
       </c>
       <c r="F51" t="n">
-        <v>37.64732126974758</v>
+        <v>37.64732126974759</v>
       </c>
       <c r="G51" t="n">
-        <v>47.7051289563671</v>
+        <v>47.70512895636726</v>
       </c>
       <c r="H51" t="n">
-        <v>6.134146073344738</v>
+        <v>6.13414607334472</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>42.15412902103607</v>
       </c>
       <c r="O51" t="n">
-        <v>9.365671057447493</v>
+        <v>9.365671057447507</v>
       </c>
       <c r="P51" t="n">
-        <v>40.52469488554834</v>
+        <v>40.52469488554833</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0917976625704581</v>
+        <v>0.09179766257045667</v>
       </c>
       <c r="R51" t="n">
-        <v>1.932881097181598</v>
+        <v>1.932881097181595</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5631579762658151</v>
+        <v>0.5631579762658003</v>
       </c>
       <c r="T51" t="n">
-        <v>2.166185077459416</v>
+        <v>2.166185077459373</v>
       </c>
       <c r="U51" t="n">
         <v>0.9100577147600764</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3363807594023387</v>
+        <v>0.3363807594023212</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001913700000002905</v>
+        <v>0.001449399999998491</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4682,13 +4682,13 @@
         <v>359.9767763532942</v>
       </c>
       <c r="F52" t="n">
-        <v>39.74108451652199</v>
+        <v>39.74108451652195</v>
       </c>
       <c r="G52" t="n">
-        <v>80.86484503958725</v>
+        <v>80.86484503958738</v>
       </c>
       <c r="H52" t="n">
-        <v>6.005246996402922</v>
+        <v>6.005246996402909</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>12.19317778961915</v>
       </c>
       <c r="P52" t="n">
-        <v>39.15204747418045</v>
+        <v>39.1520474741804</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.09775505501873219</v>
+        <v>0.09775505501873291</v>
       </c>
       <c r="R52" t="n">
-        <v>2.106406356112808</v>
+        <v>2.106406356112664</v>
       </c>
       <c r="S52" t="n">
-        <v>0.6913752342896158</v>
+        <v>0.691375234289587</v>
       </c>
       <c r="T52" t="n">
         <v>1.718210108574774</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9803863493730944</v>
+        <v>0.9803863493730949</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3736028530489799</v>
+        <v>0.3736028530489695</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.00386670000000322</v>
+        <v>0.001656300000000499</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4797,16 +4797,16 @@
         <v>37.1966964941301</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.08795649085673127</v>
+        <v>0.08795649085673062</v>
       </c>
       <c r="R53" t="n">
-        <v>1.836623557705777</v>
+        <v>1.836623557705745</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4463868513332616</v>
+        <v>0.4463868513332407</v>
       </c>
       <c r="T53" t="n">
-        <v>2.397196096161859</v>
+        <v>2.39719609616183</v>
       </c>
       <c r="U53" t="n">
         <v>0.9731881442056325</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002165800000000218</v>
+        <v>0.001556100000001948</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>42.72593141024883</v>
       </c>
       <c r="G54" t="n">
-        <v>55.74693287804548</v>
+        <v>55.74693287804553</v>
       </c>
       <c r="H54" t="n">
-        <v>3.204709634368469</v>
+        <v>3.204709634368466</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>5.666972000957019</v>
       </c>
       <c r="P54" t="n">
-        <v>42.48143367836321</v>
+        <v>42.4814336783632</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0966600811028958</v>
+        <v>0.0966600811028946</v>
       </c>
       <c r="R54" t="n">
-        <v>2.411267389386512</v>
+        <v>2.411267389386492</v>
       </c>
       <c r="S54" t="n">
-        <v>0.4561697406634702</v>
+        <v>0.4561697406634639</v>
       </c>
       <c r="T54" t="n">
-        <v>3.401966752452707</v>
+        <v>3.40196675245265</v>
       </c>
       <c r="U54" t="n">
         <v>0.9229755434246524</v>
       </c>
       <c r="V54" t="n">
-        <v>2.842582375167931</v>
+        <v>2.842582375167932</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002273199999990538</v>
+        <v>0.001640699999995832</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.8998445706723</v>
       </c>
       <c r="F55" t="n">
-        <v>39.76617812782716</v>
+        <v>39.76617812782717</v>
       </c>
       <c r="G55" t="n">
-        <v>148.9272999535182</v>
+        <v>148.9272999535181</v>
       </c>
       <c r="H55" t="n">
-        <v>9.166996851000089</v>
+        <v>9.166996851000091</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>13.73748532494413</v>
       </c>
       <c r="P55" t="n">
-        <v>28.544311033642</v>
+        <v>28.54431103364201</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.09347176773067678</v>
+        <v>0.09347176773067394</v>
       </c>
       <c r="R55" t="n">
-        <v>1.785867466574483</v>
+        <v>1.785867466574578</v>
       </c>
       <c r="S55" t="n">
-        <v>0.5667178552731088</v>
+        <v>0.5667178552731152</v>
       </c>
       <c r="T55" t="n">
-        <v>1.168716085063976</v>
+        <v>1.168716085063922</v>
       </c>
       <c r="U55" t="n">
         <v>1.121788569818105</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2888002117550541</v>
+        <v>0.2888002117550555</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002286699999999087</v>
+        <v>0.001820799999997291</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5010,13 +5010,13 @@
         <v>0.1900266383552139</v>
       </c>
       <c r="F56" t="n">
-        <v>37.44863486859006</v>
+        <v>37.44863486859003</v>
       </c>
       <c r="G56" t="n">
-        <v>90.23763471537224</v>
+        <v>90.23763471537228</v>
       </c>
       <c r="H56" t="n">
-        <v>6.016621099593831</v>
+        <v>6.016621099593826</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>13.74769163425548</v>
       </c>
       <c r="P56" t="n">
-        <v>35.82855077166328</v>
+        <v>35.82855077166325</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.09029770809431419</v>
+        <v>0.09029770809431312</v>
       </c>
       <c r="R56" t="n">
-        <v>1.859903390527552</v>
+        <v>1.859903390527545</v>
       </c>
       <c r="S56" t="n">
-        <v>0.6607130220652051</v>
+        <v>0.6607130220652059</v>
       </c>
       <c r="T56" t="n">
-        <v>1.416957484887385</v>
+        <v>1.416957484887368</v>
       </c>
       <c r="U56" t="n">
-        <v>0.983910214228595</v>
+        <v>0.9839102142285948</v>
       </c>
       <c r="V56" t="n">
-        <v>1.037068170794869</v>
+        <v>1.037068170794873</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002986300000003439</v>
+        <v>0.001620799999997757</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5092,13 +5092,13 @@
         <v>359.9035477793799</v>
       </c>
       <c r="F57" t="n">
-        <v>41.05572992945389</v>
+        <v>41.05572992945391</v>
       </c>
       <c r="G57" t="n">
         <v>16.27575625015085</v>
       </c>
       <c r="H57" t="n">
-        <v>17.05793961611728</v>
+        <v>17.0579396161173</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>6.71392361403087</v>
       </c>
       <c r="P57" t="n">
-        <v>58.48960538101876</v>
+        <v>58.48960538101879</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.1054362332404852</v>
+        <v>0.1054362332404846</v>
       </c>
       <c r="R57" t="n">
-        <v>2.8731164458128</v>
+        <v>2.873116445812796</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6911921405935045</v>
+        <v>0.6911921405935022</v>
       </c>
       <c r="T57" t="n">
-        <v>3.912081605781681</v>
+        <v>3.912081605781639</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9769449450389091</v>
+        <v>0.9769449450389089</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5768512504353105</v>
+        <v>0.5768512504353132</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003534599999994725</v>
+        <v>0.001622599999997476</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5177,10 +5177,10 @@
         <v>40.62471508014007</v>
       </c>
       <c r="G58" t="n">
-        <v>174.2537913104703</v>
+        <v>174.2537913104704</v>
       </c>
       <c r="H58" t="n">
-        <v>5.777311063389727</v>
+        <v>5.777311063389761</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>3.321169044043304</v>
       </c>
       <c r="P58" t="n">
-        <v>31.16271070635131</v>
+        <v>31.16271070635127</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.07605248821596163</v>
+        <v>0.07605248821596265</v>
       </c>
       <c r="R58" t="n">
-        <v>2.399190633980076</v>
+        <v>2.399190633980143</v>
       </c>
       <c r="S58" t="n">
-        <v>0.2408096306398445</v>
+        <v>0.2408096306398461</v>
       </c>
       <c r="T58" t="n">
-        <v>3.697874582878503</v>
+        <v>3.697874582878611</v>
       </c>
       <c r="U58" t="n">
-        <v>0.9598921658160714</v>
+        <v>0.9598921658160708</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6782936653096696</v>
+        <v>0.6782936653096523</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003986099999991666</v>
+        <v>0.00154430000000616</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5256,13 +5256,13 @@
         <v>359.9107992756502</v>
       </c>
       <c r="F59" t="n">
-        <v>36.16327001022781</v>
+        <v>36.16327001022779</v>
       </c>
       <c r="G59" t="n">
-        <v>8.291610052737527</v>
+        <v>8.291610052737513</v>
       </c>
       <c r="H59" t="n">
-        <v>12.96762952465189</v>
+        <v>12.96762952465192</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>3.925037245423028</v>
       </c>
       <c r="P59" t="n">
-        <v>49.06043018398413</v>
+        <v>49.06043018398415</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.082998612986508</v>
+        <v>0.08299861298650703</v>
       </c>
       <c r="R59" t="n">
-        <v>2.642444941528606</v>
+        <v>2.642444941528609</v>
       </c>
       <c r="S59" t="n">
-        <v>0.3721223889139122</v>
+        <v>0.3721223889139113</v>
       </c>
       <c r="T59" t="n">
-        <v>4.322540817964205</v>
+        <v>4.322540817964133</v>
       </c>
       <c r="U59" t="n">
         <v>1.090799459113849</v>
       </c>
       <c r="V59" t="n">
-        <v>3.501513182199953</v>
+        <v>3.501513182199966</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001908000000000243</v>
+        <v>0.001603600000002814</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9481285968117</v>
       </c>
       <c r="F60" t="n">
-        <v>36.0010880268286</v>
+        <v>36.00108802682858</v>
       </c>
       <c r="G60" t="n">
-        <v>55.73519510312583</v>
+        <v>55.73519510312584</v>
       </c>
       <c r="H60" t="n">
-        <v>8.527518956560568</v>
+        <v>8.527518956560561</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>13.77195087918042</v>
       </c>
       <c r="P60" t="n">
-        <v>40.30481758284493</v>
+        <v>40.3048175828449</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.09147335197708525</v>
+        <v>0.09147335197708131</v>
       </c>
       <c r="R60" t="n">
-        <v>1.904199315803607</v>
+        <v>1.904199315803677</v>
       </c>
       <c r="S60" t="n">
-        <v>0.730626870900133</v>
+        <v>0.7306268709001246</v>
       </c>
       <c r="T60" t="n">
-        <v>1.55710760718694</v>
+        <v>1.557107607186853</v>
       </c>
       <c r="U60" t="n">
-        <v>0.9422144568678151</v>
+        <v>0.9422144568678146</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4438213389303217</v>
+        <v>0.4438213389303197</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002423600000000192</v>
+        <v>0.001858900000001995</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>173.0136850891429</v>
       </c>
       <c r="H61" t="n">
-        <v>6.610979502075085</v>
+        <v>6.610979502075082</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>28.59764248171763</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.07805675943340941</v>
+        <v>0.0780567594334093</v>
       </c>
       <c r="R61" t="n">
-        <v>1.946475310672831</v>
+        <v>1.946475310672843</v>
       </c>
       <c r="S61" t="n">
-        <v>0.2575729536402137</v>
+        <v>0.2575729536402122</v>
       </c>
       <c r="T61" t="n">
-        <v>2.987896495354891</v>
+        <v>2.987896495354872</v>
       </c>
       <c r="U61" t="n">
         <v>1.004611948272105</v>
       </c>
       <c r="V61" t="n">
-        <v>1.263738877575561</v>
+        <v>1.26373887757556</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002195600000007403</v>
+        <v>0.001705899999997484</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.8809576548432</v>
       </c>
       <c r="F62" t="n">
-        <v>43.82544363756579</v>
+        <v>43.82544363756575</v>
       </c>
       <c r="G62" t="n">
-        <v>48.44524056973888</v>
+        <v>48.44524056973893</v>
       </c>
       <c r="H62" t="n">
-        <v>6.998657915007508</v>
+        <v>6.998657915007493</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,16 +5532,16 @@
         <v>8.946087888486247</v>
       </c>
       <c r="P62" t="n">
-        <v>47.35601811151817</v>
+        <v>47.35601811151813</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.1089285489082019</v>
+        <v>0.108928548908202</v>
       </c>
       <c r="R62" t="n">
-        <v>2.640755991431825</v>
+        <v>2.640755991431834</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7130424084854263</v>
+        <v>0.7130424084854347</v>
       </c>
       <c r="T62" t="n">
         <v>2.705289449098198</v>
@@ -5550,7 +5550,7 @@
         <v>1.070619146295841</v>
       </c>
       <c r="V62" t="n">
-        <v>1.278960051079229</v>
+        <v>1.278960051079218</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.00216700000000003</v>
+        <v>0.001746199999999476</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5584,10 +5584,10 @@
         <v>0.06134184046548644</v>
       </c>
       <c r="F63" t="n">
-        <v>41.80486368266202</v>
+        <v>41.80486368266203</v>
       </c>
       <c r="G63" t="n">
-        <v>145.5242250567824</v>
+        <v>145.5242250567823</v>
       </c>
       <c r="H63" t="n">
         <v>5.270620796197837</v>
@@ -5614,25 +5614,25 @@
         <v>8.034009911757966</v>
       </c>
       <c r="P63" t="n">
-        <v>34.31133110204217</v>
+        <v>34.3113311020422</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.09473300781376272</v>
+        <v>0.09473300781375893</v>
       </c>
       <c r="R63" t="n">
-        <v>1.951340052598277</v>
+        <v>1.951340052598275</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4669269554152866</v>
+        <v>0.4669269554152709</v>
       </c>
       <c r="T63" t="n">
-        <v>2.301416603426247</v>
+        <v>2.301416603426125</v>
       </c>
       <c r="U63" t="n">
         <v>1.031616651150171</v>
       </c>
       <c r="V63" t="n">
-        <v>0.2621133493891558</v>
+        <v>0.2621133493891583</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002287599999988288</v>
+        <v>0.001629300000004719</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>11.55364536799359</v>
       </c>
       <c r="H64" t="n">
-        <v>4.548972138919165</v>
+        <v>4.548972138919164</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,19 +5699,19 @@
         <v>47.39999920987732</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.0956200006989425</v>
+        <v>0.09562000069894022</v>
       </c>
       <c r="R64" t="n">
-        <v>3.752546625930896</v>
+        <v>3.752546625930818</v>
       </c>
       <c r="S64" t="n">
-        <v>0.3397663839447816</v>
+        <v>0.3397663839447764</v>
       </c>
       <c r="T64" t="n">
-        <v>6.003161489901853</v>
+        <v>6.003161489901661</v>
       </c>
       <c r="U64" t="n">
-        <v>0.8940556362173762</v>
+        <v>0.8940556362173759</v>
       </c>
       <c r="V64" t="n">
         <v>1.3916455203923</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001911500000005617</v>
+        <v>0.001834299999998734</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9687599094415</v>
       </c>
       <c r="F65" t="n">
-        <v>41.04986752526376</v>
+        <v>41.04986752526372</v>
       </c>
       <c r="G65" t="n">
-        <v>103.3764711455177</v>
+        <v>103.376471145518</v>
       </c>
       <c r="H65" t="n">
-        <v>7.969617463735569</v>
+        <v>7.969617463735556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>16.09636710082532</v>
       </c>
       <c r="P65" t="n">
-        <v>37.6989092798467</v>
+        <v>37.69890927984662</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1020434385973819</v>
+        <v>0.1020434385973769</v>
       </c>
       <c r="R65" t="n">
-        <v>2.322681191957906</v>
+        <v>2.322681191957941</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8532575907810216</v>
+        <v>0.8532575907809831</v>
       </c>
       <c r="T65" t="n">
-        <v>1.257797010579443</v>
+        <v>1.257797010579381</v>
       </c>
       <c r="U65" t="n">
         <v>0.959691411445632</v>
       </c>
       <c r="V65" t="n">
-        <v>0.1827827542099716</v>
+        <v>0.1827827542099702</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00413310000000422</v>
+        <v>0.002271100000001525</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5833,7 +5833,7 @@
         <v>40.1994616984672</v>
       </c>
       <c r="G66" t="n">
-        <v>75.49958187721519</v>
+        <v>75.49958187721518</v>
       </c>
       <c r="H66" t="n">
         <v>8.878888422694796</v>
@@ -5863,22 +5863,22 @@
         <v>41.91049868472061</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.09850827157483673</v>
+        <v>0.09850827157483609</v>
       </c>
       <c r="R66" t="n">
-        <v>2.389559853166701</v>
+        <v>2.389559853166404</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9350818989146882</v>
+        <v>0.9350818989145833</v>
       </c>
       <c r="T66" t="n">
-        <v>1.439419255562232</v>
+        <v>1.439419255562198</v>
       </c>
       <c r="U66" t="n">
         <v>1.079680149889766</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4819029124964341</v>
+        <v>0.4819029124964335</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002405700000011279</v>
+        <v>0.001850099999998633</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>39.45847303308334</v>
       </c>
       <c r="G67" t="n">
-        <v>36.76761282008192</v>
+        <v>36.76761282008202</v>
       </c>
       <c r="H67" t="n">
-        <v>3.281071708427935</v>
+        <v>3.281071708427929</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>40.16010359687165</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.09020813238083375</v>
+        <v>0.09020813238083424</v>
       </c>
       <c r="R67" t="n">
-        <v>2.251593768108169</v>
+        <v>2.251593768108216</v>
       </c>
       <c r="S67" t="n">
-        <v>0.3854367761140906</v>
+        <v>0.3854367761140927</v>
       </c>
       <c r="T67" t="n">
-        <v>3.441689627707566</v>
+        <v>3.441689627707624</v>
       </c>
       <c r="U67" t="n">
         <v>0.9921527996444747</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1805378780206967</v>
+        <v>0.1805378780206987</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001891699999987395</v>
+        <v>0.001411100000005661</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -5994,13 +5994,13 @@
         <v>359.9093953544214</v>
       </c>
       <c r="F68" t="n">
-        <v>38.16947628440285</v>
+        <v>38.16947628440287</v>
       </c>
       <c r="G68" t="n">
-        <v>35.94541050967691</v>
+        <v>35.94541050967698</v>
       </c>
       <c r="H68" t="n">
-        <v>3.188204509345943</v>
+        <v>3.188204509345938</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>38.79580090743386</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.08367370027743058</v>
+        <v>0.08367370027743042</v>
       </c>
       <c r="R68" t="n">
-        <v>2.129508467377317</v>
+        <v>2.129508467377315</v>
       </c>
       <c r="S68" t="n">
-        <v>0.3545070137501231</v>
+        <v>0.3545070137501262</v>
       </c>
       <c r="T68" t="n">
-        <v>3.27791533907593</v>
+        <v>3.277915339075917</v>
       </c>
       <c r="U68" t="n">
         <v>0.9812443597494199</v>
       </c>
       <c r="V68" t="n">
-        <v>1.141381514083265</v>
+        <v>1.14138151408327</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00223960000001</v>
+        <v>0.001995899999997164</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.2571256705464481</v>
       </c>
       <c r="F69" t="n">
-        <v>37.03840825089316</v>
+        <v>37.03840825089321</v>
       </c>
       <c r="G69" t="n">
-        <v>101.3796701642696</v>
+        <v>101.3796701642695</v>
       </c>
       <c r="H69" t="n">
-        <v>11.73889743043993</v>
+        <v>11.73889743043996</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>38.98056188996542</v>
       </c>
       <c r="O69" t="n">
-        <v>25.57938021996622</v>
+        <v>25.57938021996624</v>
       </c>
       <c r="P69" t="n">
-        <v>35.08055391226211</v>
+        <v>35.08055391226218</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.08954284836371343</v>
+        <v>0.08954284836371182</v>
       </c>
       <c r="R69" t="n">
-        <v>2.169009512327287</v>
+        <v>2.169009512327037</v>
       </c>
       <c r="S69" t="n">
-        <v>1.084710092670136</v>
+        <v>1.084710092670012</v>
       </c>
       <c r="T69" t="n">
-        <v>0.6659685458709349</v>
+        <v>0.6659685458709281</v>
       </c>
       <c r="U69" t="n">
         <v>0.974486905230193</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5974304768201639</v>
+        <v>0.5974304768201479</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002685499999998342</v>
+        <v>0.002051500000000317</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6161,10 +6161,10 @@
         <v>39.02900807830834</v>
       </c>
       <c r="G70" t="n">
-        <v>58.45611085093044</v>
+        <v>58.45611085093045</v>
       </c>
       <c r="H70" t="n">
-        <v>2.810634823630501</v>
+        <v>2.8106348236305</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>38.38491400388905</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.08780694064765861</v>
+        <v>0.08780694064765968</v>
       </c>
       <c r="R70" t="n">
-        <v>2.029249318845274</v>
+        <v>2.029249318845232</v>
       </c>
       <c r="S70" t="n">
-        <v>0.4013163911955236</v>
+        <v>0.4013163911955268</v>
       </c>
       <c r="T70" t="n">
-        <v>2.933778639616797</v>
+        <v>2.933778639616851</v>
       </c>
       <c r="U70" t="n">
         <v>1.006024424934605</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8978298851558593</v>
+        <v>0.8978298851558607</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002196599999990667</v>
+        <v>0.001640000000001862</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.1488982475041977</v>
       </c>
       <c r="F71" t="n">
-        <v>35.19595868287379</v>
+        <v>35.19595868287383</v>
       </c>
       <c r="G71" t="n">
         <v>53.30987352914067</v>
       </c>
       <c r="H71" t="n">
-        <v>10.55132868802077</v>
+        <v>10.55132868802078</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6267,28 +6267,28 @@
         <v>48.38554590561366</v>
       </c>
       <c r="O71" t="n">
-        <v>15.87291748487742</v>
+        <v>15.87291748487741</v>
       </c>
       <c r="P71" t="n">
-        <v>41.73597885432407</v>
+        <v>41.73597885432411</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0895149858517954</v>
+        <v>0.08951498585179597</v>
       </c>
       <c r="R71" t="n">
-        <v>1.940624599175289</v>
+        <v>1.940624599175366</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8371347580430812</v>
+        <v>0.8371347580431174</v>
       </c>
       <c r="T71" t="n">
-        <v>1.451065228413402</v>
+        <v>1.451065228413428</v>
       </c>
       <c r="U71" t="n">
-        <v>1.0456571758778</v>
+        <v>1.045657175877801</v>
       </c>
       <c r="V71" t="n">
-        <v>0.705647109618218</v>
+        <v>0.7056471096182144</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002447700000004716</v>
+        <v>0.001773000000000025</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,13 +6322,13 @@
         <v>0.1207603883427956</v>
       </c>
       <c r="F72" t="n">
-        <v>38.49251783956812</v>
+        <v>38.49251783956814</v>
       </c>
       <c r="G72" t="n">
         <v>168.674433417775</v>
       </c>
       <c r="H72" t="n">
-        <v>13.36160042989455</v>
+        <v>13.36160042989454</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>12.31633478391599</v>
       </c>
       <c r="P72" t="n">
-        <v>20.62916010143394</v>
+        <v>20.62916010143397</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.08271101530835405</v>
+        <v>0.08271101530835032</v>
       </c>
       <c r="R72" t="n">
-        <v>1.333736665476152</v>
+        <v>1.333736665476123</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3913400935292879</v>
+        <v>0.391340093529263</v>
       </c>
       <c r="T72" t="n">
-        <v>1.091832997588003</v>
+        <v>1.091832997587965</v>
       </c>
       <c r="U72" t="n">
         <v>1.009422702937315</v>
       </c>
       <c r="V72" t="n">
-        <v>0.239919373504162</v>
+        <v>0.2399193735041615</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.004251599999989253</v>
+        <v>0.001733700000002614</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6407,10 +6407,10 @@
         <v>41.07984280196483</v>
       </c>
       <c r="G73" t="n">
-        <v>50.29276942673843</v>
+        <v>50.29276942673841</v>
       </c>
       <c r="H73" t="n">
-        <v>5.002605155294272</v>
+        <v>5.002605155294274</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>7.859435408307346</v>
       </c>
       <c r="P73" t="n">
-        <v>42.69973535271974</v>
+        <v>42.69973535271975</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.09837766296189952</v>
+        <v>0.09837766296189732</v>
       </c>
       <c r="R73" t="n">
-        <v>2.237263709078711</v>
+        <v>2.23726370907874</v>
       </c>
       <c r="S73" t="n">
-        <v>0.5554862505351921</v>
+        <v>0.5554862505351976</v>
       </c>
       <c r="T73" t="n">
-        <v>2.715458266991654</v>
+        <v>2.715458266991583</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9788329145406471</v>
+        <v>0.9788329145406474</v>
       </c>
       <c r="V73" t="n">
-        <v>1.386516440895708</v>
+        <v>1.386516440895706</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002172299999998017</v>
+        <v>0.001619599999997945</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6489,10 +6489,10 @@
         <v>39.81090239786149</v>
       </c>
       <c r="G74" t="n">
-        <v>16.93053587857095</v>
+        <v>16.93053587857093</v>
       </c>
       <c r="H74" t="n">
-        <v>13.84364878837703</v>
+        <v>13.84364878837706</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>6.397761647260534</v>
       </c>
       <c r="P74" t="n">
-        <v>53.41955690021906</v>
+        <v>53.41955690021909</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.09949879516532183</v>
+        <v>0.09949879516532119</v>
       </c>
       <c r="R74" t="n">
-        <v>2.606514912580428</v>
+        <v>2.606514912580411</v>
       </c>
       <c r="S74" t="n">
-        <v>0.5930834636366726</v>
+        <v>0.5930834636366596</v>
       </c>
       <c r="T74" t="n">
-        <v>3.662840279399414</v>
+        <v>3.662840279399378</v>
       </c>
       <c r="U74" t="n">
         <v>1.00891607687356</v>
       </c>
       <c r="V74" t="n">
-        <v>0.7488251494485135</v>
+        <v>0.7488251494485219</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003188499999993155</v>
+        <v>0.001481300000001795</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6598,25 +6598,25 @@
         <v>19.58144827868182</v>
       </c>
       <c r="P75" t="n">
-        <v>38.51253985740995</v>
+        <v>38.51253985740997</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.1101070539009733</v>
+        <v>0.1101070539009716</v>
       </c>
       <c r="R75" t="n">
-        <v>2.733328537469236</v>
+        <v>2.733328537469613</v>
       </c>
       <c r="S75" t="n">
-        <v>1.076891356882729</v>
+        <v>1.076891356882828</v>
       </c>
       <c r="T75" t="n">
-        <v>1.006240851985441</v>
+        <v>1.006240851985404</v>
       </c>
       <c r="U75" t="n">
-        <v>0.9105019541363223</v>
+        <v>0.9105019541363225</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6563499147386618</v>
+        <v>0.6563499147386624</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002755000000007612</v>
+        <v>0.002651800000002424</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,7 +6650,7 @@
         <v>359.9101803270165</v>
       </c>
       <c r="F76" t="n">
-        <v>39.2383794877745</v>
+        <v>39.23837948777449</v>
       </c>
       <c r="G76" t="n">
         <v>36.98111054918292</v>
@@ -6680,25 +6680,25 @@
         <v>11.41775307728586</v>
       </c>
       <c r="P76" t="n">
-        <v>49.000487223442</v>
+        <v>49.00048722344197</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.1020037109589739</v>
+        <v>0.1020037109589689</v>
       </c>
       <c r="R76" t="n">
-        <v>2.397543552598311</v>
+        <v>2.397543552598157</v>
       </c>
       <c r="S76" t="n">
-        <v>0.827320069229865</v>
+        <v>0.8273200692297886</v>
       </c>
       <c r="T76" t="n">
-        <v>2.263374189625906</v>
+        <v>2.263374189625757</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9104997523411865</v>
+        <v>0.9104997523411863</v>
       </c>
       <c r="V76" t="n">
-        <v>0.174280296349806</v>
+        <v>0.174280296349808</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00241110000000333</v>
+        <v>0.001882700000003013</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.8047144225395</v>
       </c>
       <c r="F77" t="n">
-        <v>43.58001658379116</v>
+        <v>43.58001658379117</v>
       </c>
       <c r="G77" t="n">
-        <v>84.54813607405782</v>
+        <v>84.54813607405764</v>
       </c>
       <c r="H77" t="n">
-        <v>4.6646671401158</v>
+        <v>4.664667140115806</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>9.02962907146188</v>
       </c>
       <c r="P77" t="n">
-        <v>42.01591606596039</v>
+        <v>42.01591606596042</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.1060056135350968</v>
+        <v>0.1060056135350922</v>
       </c>
       <c r="R77" t="n">
-        <v>2.407303974347836</v>
+        <v>2.407303974347788</v>
       </c>
       <c r="S77" t="n">
-        <v>0.636065023016027</v>
+        <v>0.6360650230159839</v>
       </c>
       <c r="T77" t="n">
-        <v>2.404230533516616</v>
+        <v>2.404230533516468</v>
       </c>
       <c r="U77" t="n">
-        <v>0.958427178303657</v>
+        <v>0.9584271783036571</v>
       </c>
       <c r="V77" t="n">
-        <v>1.322385563160687</v>
+        <v>1.322385563160696</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001951000000005365</v>
+        <v>0.001417100000004723</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
@@ -6814,13 +6814,13 @@
         <v>359.9302418737252</v>
       </c>
       <c r="F78" t="n">
-        <v>39.17141130257662</v>
+        <v>39.17141130257658</v>
       </c>
       <c r="G78" t="n">
-        <v>55.76944088389908</v>
+        <v>55.76944088389909</v>
       </c>
       <c r="H78" t="n">
-        <v>12.7530739898948</v>
+        <v>12.75307398989477</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>16.96242834861698</v>
       </c>
       <c r="P78" t="n">
-        <v>47.21787198518394</v>
+        <v>47.21787198518387</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.1035648212976922</v>
+        <v>0.1035648212976909</v>
       </c>
       <c r="R78" t="n">
-        <v>2.507558402627408</v>
+        <v>2.507558402627426</v>
       </c>
       <c r="S78" t="n">
-        <v>1.102340298566222</v>
+        <v>1.102340298566209</v>
       </c>
       <c r="T78" t="n">
-        <v>1.59221002741693</v>
+        <v>1.592210027416896</v>
       </c>
       <c r="U78" t="n">
-        <v>0.9533614356526808</v>
+        <v>0.9533614356526812</v>
       </c>
       <c r="V78" t="n">
-        <v>0.07889156107397199</v>
+        <v>0.07889156107397897</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00267329999999788</v>
+        <v>0.002736600000005751</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6902,7 +6902,7 @@
         <v>164.4447696313292</v>
       </c>
       <c r="H79" t="n">
-        <v>10.04307227916368</v>
+        <v>10.0430722791637</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6923,28 +6923,28 @@
         <v>25.33373033689035</v>
       </c>
       <c r="O79" t="n">
-        <v>9.925358433027899</v>
+        <v>9.925358433027911</v>
       </c>
       <c r="P79" t="n">
-        <v>25.68675591517018</v>
+        <v>25.68675591517016</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.08648170519127951</v>
+        <v>0.08648170519128162</v>
       </c>
       <c r="R79" t="n">
-        <v>1.508450544594645</v>
+        <v>1.508450544594644</v>
       </c>
       <c r="S79" t="n">
-        <v>0.4056753456016295</v>
+        <v>0.4056753456016409</v>
       </c>
       <c r="T79" t="n">
-        <v>1.545193416194689</v>
+        <v>1.545193416194721</v>
       </c>
       <c r="U79" t="n">
-        <v>0.99862220068201</v>
+        <v>0.9986222006820104</v>
       </c>
       <c r="V79" t="n">
-        <v>0.2223185025178341</v>
+        <v>0.2223185025178196</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00224100000001215</v>
+        <v>0.001601400000005526</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6978,13 +6978,13 @@
         <v>359.9138551489517</v>
       </c>
       <c r="F80" t="n">
-        <v>43.27437184328411</v>
+        <v>43.2743718432841</v>
       </c>
       <c r="G80" t="n">
-        <v>13.10698296802617</v>
+        <v>13.10698296802615</v>
       </c>
       <c r="H80" t="n">
-        <v>8.334283942689581</v>
+        <v>8.334283942689584</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7011,22 +7011,22 @@
         <v>50.51132364168004</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.09689236514179986</v>
+        <v>0.09689236514179937</v>
       </c>
       <c r="R80" t="n">
-        <v>3.176969960202304</v>
+        <v>3.176969960202289</v>
       </c>
       <c r="S80" t="n">
-        <v>0.421863037842072</v>
+        <v>0.4218630378420699</v>
       </c>
       <c r="T80" t="n">
-        <v>5.053197368381211</v>
+        <v>5.053197368381165</v>
       </c>
       <c r="U80" t="n">
         <v>1.004520803804367</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8087878922957232</v>
+        <v>0.8087878922957223</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002168500000010454</v>
+        <v>0.001593499999998471</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7060,13 +7060,13 @@
         <v>359.7099312154332</v>
       </c>
       <c r="F81" t="n">
-        <v>42.02544376290025</v>
+        <v>42.02544376290024</v>
       </c>
       <c r="G81" t="n">
-        <v>74.96600864978427</v>
+        <v>74.96600864978429</v>
       </c>
       <c r="H81" t="n">
-        <v>10.48833371253511</v>
+        <v>10.4883337125351</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>39.09485972400436</v>
       </c>
       <c r="O81" t="n">
-        <v>17.08147282906321</v>
+        <v>17.08147282906319</v>
       </c>
       <c r="P81" t="n">
-        <v>44.64251992166555</v>
+        <v>44.64251992166553</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.1135349120038183</v>
+        <v>0.1135349120038363</v>
       </c>
       <c r="R81" t="n">
-        <v>2.708782104055408</v>
+        <v>2.708782104056203</v>
       </c>
       <c r="S81" t="n">
-        <v>1.098785973276504</v>
+        <v>1.098785973276864</v>
       </c>
       <c r="T81" t="n">
-        <v>1.425409185625332</v>
+        <v>1.425409185625572</v>
       </c>
       <c r="U81" t="n">
         <v>0.9435839114371799</v>
       </c>
       <c r="V81" t="n">
-        <v>1.168781877484611</v>
+        <v>1.168781877484614</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00462500000000432</v>
+        <v>0.002104100000003939</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7142,10 +7142,10 @@
         <v>359.9672547522089</v>
       </c>
       <c r="F82" t="n">
-        <v>39.15841320443212</v>
+        <v>39.15841320443213</v>
       </c>
       <c r="G82" t="n">
-        <v>100.2119517702567</v>
+        <v>100.2119517702568</v>
       </c>
       <c r="H82" t="n">
         <v>10.89725246473736</v>
@@ -7175,22 +7175,22 @@
         <v>36.98315496633213</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.09940950254867936</v>
+        <v>0.09940950254867588</v>
       </c>
       <c r="R82" t="n">
-        <v>2.340518511175709</v>
+        <v>2.340518511175306</v>
       </c>
       <c r="S82" t="n">
-        <v>1.064230749421192</v>
+        <v>1.064230749421025</v>
       </c>
       <c r="T82" t="n">
-        <v>0.837676510019851</v>
+        <v>0.8376765100198409</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9547125684751165</v>
+        <v>0.9547125684751161</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4046549223611189</v>
+        <v>0.4046549223611199</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002692199999998479</v>
+        <v>0.002130300000004581</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.2331787728605716</v>
       </c>
       <c r="F83" t="n">
-        <v>43.22537708080815</v>
+        <v>43.22537708080812</v>
       </c>
       <c r="G83" t="n">
-        <v>89.45939766081148</v>
+        <v>89.45939766081149</v>
       </c>
       <c r="H83" t="n">
-        <v>6.298147500294448</v>
+        <v>6.29814750029444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>12.34589884604465</v>
       </c>
       <c r="P83" t="n">
-        <v>41.64297565264932</v>
+        <v>41.64297565264928</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.1041580458360918</v>
+        <v>0.1041580458360975</v>
       </c>
       <c r="R83" t="n">
-        <v>2.493381562447766</v>
+        <v>2.493381562447708</v>
       </c>
       <c r="S83" t="n">
-        <v>0.7869170513426893</v>
+        <v>0.7869170513427266</v>
       </c>
       <c r="T83" t="n">
-        <v>1.865032771604082</v>
+        <v>1.865032771604221</v>
       </c>
       <c r="U83" t="n">
         <v>1.011818999206441</v>
       </c>
       <c r="V83" t="n">
-        <v>0.9935781780153297</v>
+        <v>0.9935781780153339</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004348800000002484</v>
+        <v>0.00182230000000061</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.8372129843281</v>
       </c>
       <c r="F84" t="n">
-        <v>40.13866399422097</v>
+        <v>40.13866399422095</v>
       </c>
       <c r="G84" t="n">
-        <v>42.81993166553192</v>
+        <v>42.81993166553189</v>
       </c>
       <c r="H84" t="n">
-        <v>13.00396245372936</v>
+        <v>13.00396245372935</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7333,28 +7333,28 @@
         <v>46.97805561868334</v>
       </c>
       <c r="O84" t="n">
-        <v>13.39674256854443</v>
+        <v>13.39674256854441</v>
       </c>
       <c r="P84" t="n">
-        <v>50.33786627288302</v>
+        <v>50.337866272883</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.107054215569361</v>
+        <v>0.1070542155693661</v>
       </c>
       <c r="R84" t="n">
-        <v>2.588159104354698</v>
+        <v>2.588159104354877</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9887806751132908</v>
+        <v>0.9887806751133901</v>
       </c>
       <c r="T84" t="n">
-        <v>2.078674551448899</v>
+        <v>2.078674551449066</v>
       </c>
       <c r="U84" t="n">
         <v>1.077782631846305</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8428808219582946</v>
+        <v>0.8428808219582937</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002429699999993318</v>
+        <v>0.001762900000002787</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>359.9971703111904</v>
       </c>
       <c r="F85" t="n">
-        <v>37.62962005907478</v>
+        <v>37.62962005907477</v>
       </c>
       <c r="G85" t="n">
-        <v>46.10909888815105</v>
+        <v>46.10909888815107</v>
       </c>
       <c r="H85" t="n">
-        <v>10.29988049789788</v>
+        <v>10.29988049789787</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>13.01762691794372</v>
       </c>
       <c r="P85" t="n">
-        <v>44.7317601517057</v>
+        <v>44.73176015170568</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.09647381047543226</v>
+        <v>0.09647381047542952</v>
       </c>
       <c r="R85" t="n">
-        <v>2.159871847169405</v>
+        <v>2.159871847169414</v>
       </c>
       <c r="S85" t="n">
-        <v>0.8060287589434885</v>
+        <v>0.8060287589434728</v>
       </c>
       <c r="T85" t="n">
-        <v>1.8468156542338</v>
+        <v>1.846815654233737</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9900202229490804</v>
+        <v>0.99002022294908</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3448636643689302</v>
+        <v>0.3448636643689322</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003681299999996668</v>
+        <v>0.001887400000001094</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>0.2734695024530217</v>
       </c>
       <c r="F86" t="n">
-        <v>43.03394963777183</v>
+        <v>43.0339496377718</v>
       </c>
       <c r="G86" t="n">
-        <v>8.369949058250539</v>
+        <v>8.369949058250501</v>
       </c>
       <c r="H86" t="n">
-        <v>5.916330027049849</v>
+        <v>5.916330027049889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7497,28 +7497,28 @@
         <v>46.28716097005798</v>
       </c>
       <c r="O86" t="n">
-        <v>2.907272918303436</v>
+        <v>2.907272918303449</v>
       </c>
       <c r="P86" t="n">
-        <v>47.50221272302392</v>
+        <v>47.50221272302394</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.100205840452815</v>
+        <v>0.1002058404528147</v>
       </c>
       <c r="R86" t="n">
-        <v>3.716891970548774</v>
+        <v>3.716891970548786</v>
       </c>
       <c r="S86" t="n">
-        <v>0.3434385378441261</v>
+        <v>0.3434385378441223</v>
       </c>
       <c r="T86" t="n">
-        <v>5.956272368451495</v>
+        <v>5.956272368451457</v>
       </c>
       <c r="U86" t="n">
         <v>1.117531627889794</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5927106668300857</v>
+        <v>0.5927106668300655</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001952500000001578</v>
+        <v>0.001463299999997503</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.07004965275699117</v>
       </c>
       <c r="F87" t="n">
-        <v>40.07579019511368</v>
+        <v>40.07579019511367</v>
       </c>
       <c r="G87" t="n">
         <v>109.8920107509146</v>
       </c>
       <c r="H87" t="n">
-        <v>9.044119282160725</v>
+        <v>9.044119282160718</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7582,25 +7582,25 @@
         <v>18.69309048791799</v>
       </c>
       <c r="P87" t="n">
-        <v>35.64712465315025</v>
+        <v>35.64712465315022</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.09816493176208228</v>
+        <v>0.09816493176207416</v>
       </c>
       <c r="R87" t="n">
-        <v>2.26030135667748</v>
+        <v>2.260301356676997</v>
       </c>
       <c r="S87" t="n">
-        <v>0.8940672343698632</v>
+        <v>0.8940672343696698</v>
       </c>
       <c r="T87" t="n">
-        <v>1.002518990702453</v>
+        <v>1.002518990702396</v>
       </c>
       <c r="U87" t="n">
         <v>1.020745383879719</v>
       </c>
       <c r="V87" t="n">
-        <v>0.0988691868536723</v>
+        <v>0.09886918685367289</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00274479999998789</v>
+        <v>0.001923299999994299</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7634,13 +7634,13 @@
         <v>359.9686538398804</v>
       </c>
       <c r="F88" t="n">
-        <v>40.04492406414121</v>
+        <v>40.04492406414123</v>
       </c>
       <c r="G88" t="n">
-        <v>52.04249000280787</v>
+        <v>52.04249000280798</v>
       </c>
       <c r="H88" t="n">
-        <v>3.931976479563487</v>
+        <v>3.931976479563482</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>6.883580946184574</v>
       </c>
       <c r="P88" t="n">
-        <v>40.62354272674875</v>
+        <v>40.62354272674876</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.09340949414101977</v>
+        <v>0.09340949414102041</v>
       </c>
       <c r="R88" t="n">
-        <v>2.112256599784684</v>
+        <v>2.1122565997847</v>
       </c>
       <c r="S88" t="n">
-        <v>0.4745028816846359</v>
+        <v>0.4745028816846422</v>
       </c>
       <c r="T88" t="n">
-        <v>2.820156526748687</v>
+        <v>2.820156526748719</v>
       </c>
       <c r="U88" t="n">
         <v>1.013334709172476</v>
       </c>
       <c r="V88" t="n">
-        <v>1.211449370946239</v>
+        <v>1.211449370946244</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002211799999997766</v>
+        <v>0.001729400000002101</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.009582758063352048</v>
       </c>
       <c r="F89" t="n">
-        <v>40.63804158779551</v>
+        <v>40.63804158779553</v>
       </c>
       <c r="G89" t="n">
         <v>119.1623388866717</v>
       </c>
       <c r="H89" t="n">
-        <v>14.73389732087339</v>
+        <v>14.7338973208734</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>29.46985020288698</v>
       </c>
       <c r="P89" t="n">
-        <v>33.77629214094799</v>
+        <v>33.77629214094802</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.1014951453031904</v>
+        <v>0.1014951453032042</v>
       </c>
       <c r="R89" t="n">
-        <v>2.633442468423392</v>
+        <v>2.633442468424331</v>
       </c>
       <c r="S89" t="n">
-        <v>1.283888691318016</v>
+        <v>1.283888691318473</v>
       </c>
       <c r="T89" t="n">
-        <v>0.5409706186820976</v>
+        <v>0.5409706186820908</v>
       </c>
       <c r="U89" t="n">
         <v>1.009183819389537</v>
       </c>
       <c r="V89" t="n">
-        <v>0.09709902601825951</v>
+        <v>0.09709902601826101</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002984999999995352</v>
+        <v>0.002111599999999214</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.007893860245440264</v>
       </c>
       <c r="F90" t="n">
-        <v>43.63032690062217</v>
+        <v>43.63032690062221</v>
       </c>
       <c r="G90" t="n">
         <v>114.1183120891279</v>
       </c>
       <c r="H90" t="n">
-        <v>10.03337211822904</v>
+        <v>10.03337211822906</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>18.62629152261881</v>
       </c>
       <c r="P90" t="n">
-        <v>38.08917039927956</v>
+        <v>38.0891703992796</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.108163081109611</v>
+        <v>0.1081630811096036</v>
       </c>
       <c r="R90" t="n">
-        <v>2.703807990608377</v>
+        <v>2.703807990608169</v>
       </c>
       <c r="S90" t="n">
-        <v>1.022699215250063</v>
+        <v>1.022699215249953</v>
       </c>
       <c r="T90" t="n">
-        <v>1.063144975735131</v>
+        <v>1.063144975735073</v>
       </c>
       <c r="U90" t="n">
         <v>0.9962678111844995</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5196711125608533</v>
+        <v>0.5196711125608577</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002746700000002988</v>
+        <v>0.001981899999996983</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>0.2360160063532167</v>
       </c>
       <c r="F91" t="n">
-        <v>40.04804168113611</v>
+        <v>40.04804168113615</v>
       </c>
       <c r="G91" t="n">
-        <v>112.6198943866395</v>
+        <v>112.6198943866393</v>
       </c>
       <c r="H91" t="n">
-        <v>5.848336615586101</v>
+        <v>5.848336615586107</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>12.67858498714335</v>
       </c>
       <c r="P91" t="n">
-        <v>35.60015499828371</v>
+        <v>35.60015499828379</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.09474507445351975</v>
+        <v>0.09474507445351565</v>
       </c>
       <c r="R91" t="n">
-        <v>2.012658882265489</v>
+        <v>2.012658882265557</v>
       </c>
       <c r="S91" t="n">
-        <v>0.6488779806542196</v>
+        <v>0.6488779806542181</v>
       </c>
       <c r="T91" t="n">
-        <v>1.553500625332593</v>
+        <v>1.553500625332507</v>
       </c>
       <c r="U91" t="n">
         <v>1.03943698162273</v>
       </c>
       <c r="V91" t="n">
-        <v>0.7937018822126989</v>
+        <v>0.7937018822126872</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002222700000004352</v>
+        <v>0.002150399999997887</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7962,13 +7962,13 @@
         <v>359.8984716245014</v>
       </c>
       <c r="F92" t="n">
-        <v>36.76831456762856</v>
+        <v>36.76831456762857</v>
       </c>
       <c r="G92" t="n">
-        <v>16.44557440804581</v>
+        <v>16.44557440804584</v>
       </c>
       <c r="H92" t="n">
-        <v>8.1201775531464</v>
+        <v>8.120177553146384</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>5.07632663093287</v>
       </c>
       <c r="P92" t="n">
-        <v>43.66874430254682</v>
+        <v>43.6687443025468</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.08443672555416373</v>
+        <v>0.08443672555416318</v>
       </c>
       <c r="R92" t="n">
-        <v>2.208784598675588</v>
+        <v>2.208784598675592</v>
       </c>
       <c r="S92" t="n">
-        <v>0.3925816030340322</v>
+        <v>0.3925816030340352</v>
       </c>
       <c r="T92" t="n">
-        <v>3.432142978633383</v>
+        <v>3.43214297863334</v>
       </c>
       <c r="U92" t="n">
-        <v>1.071539611723311</v>
+        <v>1.07153961172331</v>
       </c>
       <c r="V92" t="n">
-        <v>1.99654857826146</v>
+        <v>1.996548578261451</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00387489999999957</v>
+        <v>0.001667900000001055</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.8352639177774</v>
       </c>
       <c r="F93" t="n">
-        <v>37.75271348568199</v>
+        <v>37.75271348568197</v>
       </c>
       <c r="G93" t="n">
-        <v>33.3464214410396</v>
+        <v>33.34642144103952</v>
       </c>
       <c r="H93" t="n">
-        <v>7.286869838710458</v>
+        <v>7.286869838710477</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>7.872804451694106</v>
       </c>
       <c r="P93" t="n">
-        <v>42.84463452318966</v>
+        <v>42.84463452318968</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.09175947698193275</v>
+        <v>0.09175947698193608</v>
       </c>
       <c r="R93" t="n">
-        <v>2.023092551290202</v>
+        <v>2.023092551290172</v>
       </c>
       <c r="S93" t="n">
-        <v>0.5277448450614221</v>
+        <v>0.527744845061443</v>
       </c>
       <c r="T93" t="n">
-        <v>2.553478960800064</v>
+        <v>2.553478960800182</v>
       </c>
       <c r="U93" t="n">
-        <v>0.9404535791928846</v>
+        <v>0.9404535791928843</v>
       </c>
       <c r="V93" t="n">
-        <v>0.2581999192059915</v>
+        <v>0.2581999192059994</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002121399999992946</v>
+        <v>0.001462600000003533</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8159,19 +8159,19 @@
         <v>19.76369308116008</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.08184939655603532</v>
+        <v>0.08184939655603297</v>
       </c>
       <c r="R94" t="n">
-        <v>1.386481933862743</v>
+        <v>1.38648193386264</v>
       </c>
       <c r="S94" t="n">
-        <v>0.4373279327551108</v>
+        <v>0.4373279327550779</v>
       </c>
       <c r="T94" t="n">
-        <v>0.826701023900508</v>
+        <v>0.8267010239005016</v>
       </c>
       <c r="U94" t="n">
-        <v>0.8896811046432646</v>
+        <v>0.8896811046432642</v>
       </c>
       <c r="V94" t="n">
         <v>0.7567312391788085</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.003250699999995277</v>
+        <v>0.001791799999999455</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8208,7 +8208,7 @@
         <v>359.9534779446603</v>
       </c>
       <c r="F95" t="n">
-        <v>37.71302603396113</v>
+        <v>37.71302603396112</v>
       </c>
       <c r="G95" t="n">
         <v>108.9694403707437</v>
@@ -8238,25 +8238,25 @@
         <v>22.15098702175289</v>
       </c>
       <c r="P95" t="n">
-        <v>33.61295154643872</v>
+        <v>33.61295154643873</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.09471857314359226</v>
+        <v>0.09471857314358738</v>
       </c>
       <c r="R95" t="n">
-        <v>2.088117730185891</v>
+        <v>2.088117730185668</v>
       </c>
       <c r="S95" t="n">
-        <v>0.9303892102954567</v>
+        <v>0.9303892102953504</v>
       </c>
       <c r="T95" t="n">
-        <v>0.758599483285802</v>
+        <v>0.7585994832857871</v>
       </c>
       <c r="U95" t="n">
-        <v>0.8997150595956339</v>
+        <v>0.8997150595956338</v>
       </c>
       <c r="V95" t="n">
-        <v>0.2863941236027739</v>
+        <v>0.2863941236027754</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002853399999992234</v>
+        <v>0.002099000000001183</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.03450639247785613</v>
       </c>
       <c r="F96" t="n">
-        <v>38.15944778633986</v>
+        <v>38.15944778633985</v>
       </c>
       <c r="G96" t="n">
         <v>128.4678052238636</v>
       </c>
       <c r="H96" t="n">
-        <v>9.556735995649914</v>
+        <v>9.556735995649909</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8323,22 +8323,22 @@
         <v>30.17539385244756</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.09205995248879133</v>
+        <v>0.09205995248878703</v>
       </c>
       <c r="R96" t="n">
-        <v>1.939478261050955</v>
+        <v>1.939478261050608</v>
       </c>
       <c r="S96" t="n">
-        <v>0.7628628096734429</v>
+        <v>0.7628628096733154</v>
       </c>
       <c r="T96" t="n">
-        <v>0.7960718218309084</v>
+        <v>0.7960718218309027</v>
       </c>
       <c r="U96" t="n">
-        <v>0.9960402387729402</v>
+        <v>0.9960402387729397</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3207440366308716</v>
+        <v>0.3207440366308747</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002440700000008178</v>
+        <v>0.001800299999999311</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8372,13 +8372,13 @@
         <v>359.9475336689287</v>
       </c>
       <c r="F97" t="n">
-        <v>40.24086609028892</v>
+        <v>40.2408660902889</v>
       </c>
       <c r="G97" t="n">
-        <v>36.24945737345111</v>
+        <v>36.24945737345105</v>
       </c>
       <c r="H97" t="n">
-        <v>6.208622329400045</v>
+        <v>6.208622329400056</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>43.98299277719219</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.09646704232045779</v>
+        <v>0.09646704232045569</v>
       </c>
       <c r="R97" t="n">
-        <v>2.239295164165928</v>
+        <v>2.239295164165936</v>
       </c>
       <c r="S97" t="n">
-        <v>0.5326612346652407</v>
+        <v>0.5326612346652246</v>
       </c>
       <c r="T97" t="n">
-        <v>2.890199326780261</v>
+        <v>2.890199326780193</v>
       </c>
       <c r="U97" t="n">
-        <v>0.9438894895094719</v>
+        <v>0.9438894895094723</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6176805471007007</v>
+        <v>0.6176805471007074</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002170200000009004</v>
+        <v>0.001412600000001873</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8454,13 +8454,13 @@
         <v>0.2227511458564836</v>
       </c>
       <c r="F98" t="n">
-        <v>38.36460447421471</v>
+        <v>38.36460447421472</v>
       </c>
       <c r="G98" t="n">
-        <v>44.50968831837392</v>
+        <v>44.5096883183739</v>
       </c>
       <c r="H98" t="n">
-        <v>10.64190876946428</v>
+        <v>10.64190876946429</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8481,28 +8481,28 @@
         <v>51.74105893626461</v>
       </c>
       <c r="O98" t="n">
-        <v>12.89857689334723</v>
+        <v>12.89857689334724</v>
       </c>
       <c r="P98" t="n">
-        <v>46.01598728629573</v>
+        <v>46.01598728629575</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.09697084116353566</v>
+        <v>0.09697084116353837</v>
       </c>
       <c r="R98" t="n">
-        <v>2.258390722011047</v>
+        <v>2.25839072201091</v>
       </c>
       <c r="S98" t="n">
-        <v>0.8323018007715409</v>
+        <v>0.8323018007715188</v>
       </c>
       <c r="T98" t="n">
-        <v>1.952119759602699</v>
+        <v>1.952119759602763</v>
       </c>
       <c r="U98" t="n">
-        <v>0.9672997698739626</v>
+        <v>0.967299769873963</v>
       </c>
       <c r="V98" t="n">
-        <v>0.9324061768918107</v>
+        <v>0.9324061768918011</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002436799999998129</v>
+        <v>0.001921000000002948</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>0.2413377980969852</v>
       </c>
       <c r="F99" t="n">
-        <v>37.99912199307701</v>
+        <v>37.99912199307699</v>
       </c>
       <c r="G99" t="n">
         <v>154.5566689143031</v>
@@ -8563,28 +8563,28 @@
         <v>24.13895389620888</v>
       </c>
       <c r="O99" t="n">
-        <v>23.66725787354439</v>
+        <v>23.66725787354438</v>
       </c>
       <c r="P99" t="n">
-        <v>21.69702614905451</v>
+        <v>21.69702614905449</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.08522249635689215</v>
+        <v>0.08522249635689021</v>
       </c>
       <c r="R99" t="n">
-        <v>1.806871714787494</v>
+        <v>1.806871714787396</v>
       </c>
       <c r="S99" t="n">
-        <v>0.662792704214309</v>
+        <v>0.6627927042142692</v>
       </c>
       <c r="T99" t="n">
-        <v>0.5535030718086963</v>
+        <v>0.5535030718086938</v>
       </c>
       <c r="U99" t="n">
-        <v>0.9805253764484088</v>
+        <v>0.9805253764484089</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3828110954773206</v>
+        <v>0.3828110954773309</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002916499999997768</v>
+        <v>0.002006399999999076</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8618,13 +8618,13 @@
         <v>0.3080235559308326</v>
       </c>
       <c r="F100" t="n">
-        <v>36.00796787750561</v>
+        <v>36.0079678775056</v>
       </c>
       <c r="G100" t="n">
         <v>143.8287079762758</v>
       </c>
       <c r="H100" t="n">
-        <v>9.450201818500968</v>
+        <v>9.450201818500963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>18.38853285824427</v>
       </c>
       <c r="P100" t="n">
-        <v>25.54073628973349</v>
+        <v>25.54073628973348</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.08190720075532165</v>
+        <v>0.08190720075532318</v>
       </c>
       <c r="R100" t="n">
-        <v>1.561335257394912</v>
+        <v>1.561335257394846</v>
       </c>
       <c r="S100" t="n">
-        <v>0.5848321075433358</v>
+        <v>0.5848321075433293</v>
       </c>
       <c r="T100" t="n">
-        <v>0.7686419663764076</v>
+        <v>0.768641966376423</v>
       </c>
       <c r="U100" t="n">
         <v>1.087385886708896</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7453727998975599</v>
+        <v>0.7453727998975606</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002194299999999316</v>
+        <v>0.001587499999999409</v>
       </c>
       <c r="Y100" t="n">
         <v>8</v>
@@ -8700,13 +8700,13 @@
         <v>359.8893236102388</v>
       </c>
       <c r="F101" t="n">
-        <v>41.68931235516598</v>
+        <v>41.68931235516605</v>
       </c>
       <c r="G101" t="n">
-        <v>117.9653876861899</v>
+        <v>117.9653876861898</v>
       </c>
       <c r="H101" t="n">
-        <v>9.303572676872539</v>
+        <v>9.303572676872557</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8727,28 +8727,28 @@
         <v>33.52305968980325</v>
       </c>
       <c r="O101" t="n">
-        <v>17.93273080866903</v>
+        <v>17.93273080866904</v>
       </c>
       <c r="P101" t="n">
-        <v>35.56532336683125</v>
+        <v>35.56532336683132</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.1045831917468678</v>
+        <v>0.104583191746861</v>
       </c>
       <c r="R101" t="n">
-        <v>2.387423079669223</v>
+        <v>2.387423079668828</v>
       </c>
       <c r="S101" t="n">
-        <v>0.8938913802487536</v>
+        <v>0.8938913802486083</v>
       </c>
       <c r="T101" t="n">
-        <v>1.035575722947327</v>
+        <v>1.035575722947293</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9719968712351205</v>
+        <v>0.9719968712351209</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3225874060316147</v>
+        <v>0.3225874060316261</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003654699999998456</v>
+        <v>0.002247599999996908</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
